--- a/docs/_static/axis-property-mapping.xlsx
+++ b/docs/_static/axis-property-mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\github\highcharts-python\docs\_static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A56EC-0AA9-43F0-993B-B5E57958594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6284CA-EF53-415F-9D3E-7BED06631A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F835D8FF-61C9-4E17-BF2D-7BF4D1A9F0BE}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Axis!$A$1:$I$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Series!$A$2:$D$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Series!$A$2:$L$190</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="358">
   <si>
     <t>xAxis</t>
   </si>
@@ -1487,23 +1487,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F166773-FDDC-4397-9B6E-034F3E0205F4}">
-  <dimension ref="A1:BV190"/>
+  <dimension ref="A1:BX190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F160" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
-      <selection pane="bottomRight" activeCell="K190" sqref="K190"/>
+      <selection pane="bottomRight" activeCell="BX2" sqref="BX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="28.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="28.140625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="C1" s="9" t="s">
         <v>95</v>
       </c>
@@ -1534,52 +1534,58 @@
       <c r="L1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AO1" s="1"/>
-      <c r="AR1" s="1" t="s">
+      <c r="AQ1" s="1"/>
+      <c r="AT1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>342</v>
       </c>
@@ -1616,143 +1622,149 @@
       <c r="L2" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>113</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>103</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>104</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>105</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>109</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>111</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>114</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>118</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>132</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>135</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>107</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>108</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>110</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>116</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>123</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>133</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>139</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BM2" t="s">
         <v>125</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BN2" t="s">
         <v>141</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BP2" t="s">
         <v>143</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>131</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BT2" t="s">
         <v>137</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
         <v>145</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BX2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -1789,6 +1801,9 @@
       <c r="L3" t="b">
         <v>1</v>
       </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
@@ -1798,9 +1813,6 @@
       <c r="R3" t="b">
         <v>1</v>
       </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
       <c r="T3" t="b">
         <v>1</v>
       </c>
@@ -1819,13 +1831,10 @@
       <c r="Y3" t="b">
         <v>1</v>
       </c>
-      <c r="AB3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="b">
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
         <v>1</v>
       </c>
       <c r="AE3" t="b">
@@ -1846,24 +1855,24 @@
       <c r="AJ3" t="b">
         <v>1</v>
       </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
       <c r="AL3" t="b">
         <v>1</v>
       </c>
-      <c r="AO3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="b">
+      <c r="AN3" t="b">
         <v>1</v>
       </c>
       <c r="AQ3" t="b">
         <v>1</v>
       </c>
+      <c r="AR3" t="b">
+        <v>1</v>
+      </c>
       <c r="AS3" t="b">
         <v>1</v>
       </c>
-      <c r="AT3" t="b">
-        <v>1</v>
-      </c>
       <c r="AU3" t="b">
         <v>1</v>
       </c>
@@ -1948,8 +1957,14 @@
       <c r="BV3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>334</v>
       </c>
@@ -1964,11 +1979,13 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="Y4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -2005,6 +2022,9 @@
       <c r="L5" t="b">
         <v>1</v>
       </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
@@ -2014,9 +2034,6 @@
       <c r="R5" t="b">
         <v>1</v>
       </c>
-      <c r="S5" t="b">
-        <v>1</v>
-      </c>
       <c r="T5" t="b">
         <v>1</v>
       </c>
@@ -2035,13 +2052,10 @@
       <c r="Y5" t="b">
         <v>1</v>
       </c>
-      <c r="AB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="b">
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="b">
         <v>1</v>
       </c>
       <c r="AE5" t="b">
@@ -2062,24 +2076,24 @@
       <c r="AJ5" t="b">
         <v>1</v>
       </c>
+      <c r="AK5" t="b">
+        <v>1</v>
+      </c>
       <c r="AL5" t="b">
         <v>1</v>
       </c>
-      <c r="AO5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="b">
+      <c r="AN5" t="b">
         <v>1</v>
       </c>
       <c r="AQ5" t="b">
         <v>1</v>
       </c>
+      <c r="AR5" t="b">
+        <v>1</v>
+      </c>
       <c r="AS5" t="b">
         <v>1</v>
       </c>
-      <c r="AT5" t="b">
-        <v>1</v>
-      </c>
       <c r="AU5" t="b">
         <v>1</v>
       </c>
@@ -2164,8 +2178,14 @@
       <c r="BV5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>321</v>
       </c>
@@ -2180,11 +2200,13 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="U6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -2221,6 +2243,9 @@
       <c r="L7" t="b">
         <v>1</v>
       </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
       <c r="N7" t="b">
         <v>1</v>
       </c>
@@ -2230,9 +2255,6 @@
       <c r="R7" t="b">
         <v>1</v>
       </c>
-      <c r="S7" t="b">
-        <v>1</v>
-      </c>
       <c r="T7" t="b">
         <v>1</v>
       </c>
@@ -2251,13 +2273,10 @@
       <c r="Y7" t="b">
         <v>1</v>
       </c>
-      <c r="AB7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="b">
+      <c r="Z7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="b">
         <v>1</v>
       </c>
       <c r="AE7" t="b">
@@ -2278,24 +2297,24 @@
       <c r="AJ7" t="b">
         <v>1</v>
       </c>
+      <c r="AK7" t="b">
+        <v>1</v>
+      </c>
       <c r="AL7" t="b">
         <v>1</v>
       </c>
-      <c r="AO7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP7" t="b">
+      <c r="AN7" t="b">
         <v>1</v>
       </c>
       <c r="AQ7" t="b">
         <v>1</v>
       </c>
+      <c r="AR7" t="b">
+        <v>1</v>
+      </c>
       <c r="AS7" t="b">
         <v>1</v>
       </c>
-      <c r="AT7" t="b">
-        <v>1</v>
-      </c>
       <c r="AU7" t="b">
         <v>1</v>
       </c>
@@ -2380,8 +2399,14 @@
       <c r="BV7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
@@ -2414,28 +2439,25 @@
       <c r="L8" t="b">
         <v>1</v>
       </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
-      <c r="W8" t="b">
-        <v>1</v>
-      </c>
-      <c r="X8" t="b">
+      <c r="R8" t="b">
         <v>1</v>
       </c>
       <c r="Y8" t="b">
         <v>1</v>
       </c>
-      <c r="AB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="b">
+      <c r="Z8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="b">
         <v>1</v>
       </c>
       <c r="AE8" t="b">
@@ -2456,24 +2478,24 @@
       <c r="AJ8" t="b">
         <v>1</v>
       </c>
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
       <c r="AL8" t="b">
         <v>1</v>
       </c>
-      <c r="AO8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP8" t="b">
+      <c r="AN8" t="b">
         <v>1</v>
       </c>
       <c r="AQ8" t="b">
         <v>1</v>
       </c>
+      <c r="AR8" t="b">
+        <v>1</v>
+      </c>
       <c r="AS8" t="b">
         <v>1</v>
       </c>
-      <c r="AT8" t="b">
-        <v>1</v>
-      </c>
       <c r="AU8" t="b">
         <v>1</v>
       </c>
@@ -2501,14 +2523,20 @@
       <c r="BC8" t="b">
         <v>1</v>
       </c>
-      <c r="BP8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
@@ -2523,11 +2551,13 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="AX9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="AZ9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>296</v>
       </c>
@@ -2542,11 +2572,13 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="AX10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="AZ10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -2572,22 +2604,19 @@
       <c r="L11" t="b">
         <v>1</v>
       </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
       <c r="N11" t="b">
         <v>1</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
-      <c r="W11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="b">
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="b">
         <v>1</v>
       </c>
       <c r="AE11" t="b">
@@ -2608,24 +2637,24 @@
       <c r="AJ11" t="b">
         <v>1</v>
       </c>
+      <c r="AK11" t="b">
+        <v>1</v>
+      </c>
       <c r="AL11" t="b">
         <v>1</v>
       </c>
-      <c r="AO11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP11" t="b">
+      <c r="AN11" t="b">
         <v>1</v>
       </c>
       <c r="AQ11" t="b">
         <v>1</v>
       </c>
+      <c r="AR11" t="b">
+        <v>1</v>
+      </c>
       <c r="AS11" t="b">
         <v>1</v>
       </c>
-      <c r="AT11" t="b">
-        <v>1</v>
-      </c>
       <c r="AU11" t="b">
         <v>1</v>
       </c>
@@ -2653,14 +2682,20 @@
       <c r="BC11" t="b">
         <v>1</v>
       </c>
-      <c r="BP11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -2686,22 +2721,19 @@
       <c r="L12" t="b">
         <v>1</v>
       </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
-      <c r="W12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="b">
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="b">
         <v>1</v>
       </c>
       <c r="AE12" t="b">
@@ -2722,24 +2754,24 @@
       <c r="AJ12" t="b">
         <v>1</v>
       </c>
+      <c r="AK12" t="b">
+        <v>1</v>
+      </c>
       <c r="AL12" t="b">
         <v>1</v>
       </c>
-      <c r="AO12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP12" t="b">
+      <c r="AN12" t="b">
         <v>1</v>
       </c>
       <c r="AQ12" t="b">
         <v>1</v>
       </c>
+      <c r="AR12" t="b">
+        <v>1</v>
+      </c>
       <c r="AS12" t="b">
         <v>1</v>
       </c>
-      <c r="AT12" t="b">
-        <v>1</v>
-      </c>
       <c r="AU12" t="b">
         <v>1</v>
       </c>
@@ -2767,14 +2799,20 @@
       <c r="BC12" t="b">
         <v>1</v>
       </c>
-      <c r="BP12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>102</v>
       </c>
@@ -2799,33 +2837,30 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="T13" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP13" t="b">
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="b">
         <v>1</v>
       </c>
       <c r="AQ13" t="b">
         <v>1</v>
       </c>
+      <c r="AR13" t="b">
+        <v>1</v>
+      </c>
       <c r="AS13" t="b">
         <v>1</v>
       </c>
-      <c r="AT13" t="b">
-        <v>1</v>
-      </c>
       <c r="AU13" t="b">
         <v>1</v>
       </c>
@@ -2853,29 +2888,35 @@
       <c r="BC13" t="b">
         <v>1</v>
       </c>
-      <c r="BG13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH13" t="b">
+      <c r="BD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE13" t="b">
         <v>1</v>
       </c>
       <c r="BI13" t="b">
         <v>1</v>
       </c>
+      <c r="BJ13" t="b">
+        <v>1</v>
+      </c>
       <c r="BK13" t="b">
         <v>1</v>
       </c>
-      <c r="BL13" t="b">
+      <c r="BM13" t="b">
         <v>1</v>
       </c>
       <c r="BN13" t="b">
         <v>1</v>
       </c>
-      <c r="BT13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>331</v>
       </c>
@@ -2892,11 +2933,13 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="X14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -2911,33 +2954,30 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="W15" t="b">
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
         <v>1</v>
       </c>
       <c r="Y15" t="b">
         <v>1</v>
       </c>
-      <c r="AB15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP15" t="b">
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="b">
         <v>1</v>
       </c>
       <c r="AQ15" t="b">
         <v>1</v>
       </c>
+      <c r="AR15" t="b">
+        <v>1</v>
+      </c>
       <c r="AS15" t="b">
         <v>1</v>
       </c>
-      <c r="AT15" t="b">
-        <v>1</v>
-      </c>
       <c r="AU15" t="b">
         <v>1</v>
       </c>
@@ -2965,17 +3005,23 @@
       <c r="BC15" t="b">
         <v>1</v>
       </c>
-      <c r="BK15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN15" t="b">
+      <c r="BD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM15" t="b">
         <v>1</v>
       </c>
       <c r="BP15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BR15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
@@ -3000,33 +3046,30 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="T16" t="b">
-        <v>1</v>
-      </c>
-      <c r="U16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP16" t="b">
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="b">
         <v>1</v>
       </c>
       <c r="AQ16" t="b">
         <v>1</v>
       </c>
+      <c r="AR16" t="b">
+        <v>1</v>
+      </c>
       <c r="AS16" t="b">
         <v>1</v>
       </c>
-      <c r="AT16" t="b">
-        <v>1</v>
-      </c>
       <c r="AU16" t="b">
         <v>1</v>
       </c>
@@ -3054,29 +3097,35 @@
       <c r="BC16" t="b">
         <v>1</v>
       </c>
-      <c r="BG16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH16" t="b">
+      <c r="BD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE16" t="b">
         <v>1</v>
       </c>
       <c r="BI16" t="b">
         <v>1</v>
       </c>
+      <c r="BJ16" t="b">
+        <v>1</v>
+      </c>
       <c r="BK16" t="b">
         <v>1</v>
       </c>
-      <c r="BL16" t="b">
+      <c r="BM16" t="b">
         <v>1</v>
       </c>
       <c r="BN16" t="b">
         <v>1</v>
       </c>
-      <c r="BT16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
@@ -3091,14 +3140,16 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="BD17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="BF17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>321</v>
       </c>
@@ -3113,11 +3164,13 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="U18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>331</v>
       </c>
@@ -3132,11 +3185,13 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="X19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="Z19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>247</v>
       </c>
@@ -3156,35 +3211,37 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="T20" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH20" t="b">
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="b">
         <v>1</v>
       </c>
       <c r="BI20" t="b">
         <v>1</v>
       </c>
+      <c r="BJ20" t="b">
+        <v>1</v>
+      </c>
       <c r="BK20" t="b">
         <v>1</v>
       </c>
-      <c r="BL20" t="b">
+      <c r="BM20" t="b">
         <v>1</v>
       </c>
       <c r="BN20" t="b">
         <v>1</v>
       </c>
-      <c r="BT20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
@@ -3204,27 +3261,24 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="Y21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP21" t="b">
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="b">
         <v>1</v>
       </c>
       <c r="AQ21" t="b">
         <v>1</v>
       </c>
+      <c r="AR21" t="b">
+        <v>1</v>
+      </c>
       <c r="AS21" t="b">
         <v>1</v>
       </c>
-      <c r="AT21" t="b">
-        <v>1</v>
-      </c>
       <c r="AU21" t="b">
         <v>1</v>
       </c>
@@ -3252,17 +3306,23 @@
       <c r="BC21" t="b">
         <v>1</v>
       </c>
-      <c r="BK21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>240</v>
       </c>
@@ -3282,8 +3342,10 @@
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-    </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -3320,6 +3382,9 @@
       <c r="L23" t="b">
         <v>1</v>
       </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
       <c r="N23" t="b">
         <v>1</v>
       </c>
@@ -3329,9 +3394,6 @@
       <c r="R23" t="b">
         <v>1</v>
       </c>
-      <c r="S23" t="b">
-        <v>1</v>
-      </c>
       <c r="T23" t="b">
         <v>1</v>
       </c>
@@ -3350,13 +3412,10 @@
       <c r="Y23" t="b">
         <v>1</v>
       </c>
-      <c r="AB23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="b">
+      <c r="Z23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="b">
         <v>1</v>
       </c>
       <c r="AE23" t="b">
@@ -3377,24 +3436,24 @@
       <c r="AJ23" t="b">
         <v>1</v>
       </c>
+      <c r="AK23" t="b">
+        <v>1</v>
+      </c>
       <c r="AL23" t="b">
         <v>1</v>
       </c>
-      <c r="AO23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP23" t="b">
+      <c r="AN23" t="b">
         <v>1</v>
       </c>
       <c r="AQ23" t="b">
         <v>1</v>
       </c>
+      <c r="AR23" t="b">
+        <v>1</v>
+      </c>
       <c r="AS23" t="b">
         <v>1</v>
       </c>
-      <c r="AT23" t="b">
-        <v>1</v>
-      </c>
       <c r="AU23" t="b">
         <v>1</v>
       </c>
@@ -3479,8 +3538,14 @@
       <c r="BV23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -3517,6 +3582,9 @@
       <c r="L24" t="b">
         <v>1</v>
       </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
       <c r="N24" t="b">
         <v>1</v>
       </c>
@@ -3526,9 +3594,6 @@
       <c r="R24" t="b">
         <v>1</v>
       </c>
-      <c r="S24" t="b">
-        <v>1</v>
-      </c>
       <c r="T24" t="b">
         <v>1</v>
       </c>
@@ -3547,13 +3612,10 @@
       <c r="Y24" t="b">
         <v>1</v>
       </c>
-      <c r="AB24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="b">
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="b">
         <v>1</v>
       </c>
       <c r="AE24" t="b">
@@ -3574,24 +3636,24 @@
       <c r="AJ24" t="b">
         <v>1</v>
       </c>
+      <c r="AK24" t="b">
+        <v>1</v>
+      </c>
       <c r="AL24" t="b">
         <v>1</v>
       </c>
-      <c r="AO24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP24" t="b">
+      <c r="AN24" t="b">
         <v>1</v>
       </c>
       <c r="AQ24" t="b">
         <v>1</v>
       </c>
+      <c r="AR24" t="b">
+        <v>1</v>
+      </c>
       <c r="AS24" t="b">
         <v>1</v>
       </c>
-      <c r="AT24" t="b">
-        <v>1</v>
-      </c>
       <c r="AU24" t="b">
         <v>1</v>
       </c>
@@ -3676,8 +3738,14 @@
       <c r="BV24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>328</v>
       </c>
@@ -3692,14 +3760,16 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="X25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="Z25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
@@ -3736,6 +3806,9 @@
       <c r="L26" t="b">
         <v>1</v>
       </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
       <c r="N26" t="b">
         <v>1</v>
       </c>
@@ -3745,9 +3818,6 @@
       <c r="R26" t="b">
         <v>1</v>
       </c>
-      <c r="S26" t="b">
-        <v>1</v>
-      </c>
       <c r="T26" t="b">
         <v>1</v>
       </c>
@@ -3766,13 +3836,10 @@
       <c r="Y26" t="b">
         <v>1</v>
       </c>
-      <c r="AB26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="b">
+      <c r="Z26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="b">
         <v>1</v>
       </c>
       <c r="AE26" t="b">
@@ -3793,24 +3860,24 @@
       <c r="AJ26" t="b">
         <v>1</v>
       </c>
+      <c r="AK26" t="b">
+        <v>1</v>
+      </c>
       <c r="AL26" t="b">
         <v>1</v>
       </c>
-      <c r="AO26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP26" t="b">
+      <c r="AN26" t="b">
         <v>1</v>
       </c>
       <c r="AQ26" t="b">
         <v>1</v>
       </c>
+      <c r="AR26" t="b">
+        <v>1</v>
+      </c>
       <c r="AS26" t="b">
         <v>1</v>
       </c>
-      <c r="AT26" t="b">
-        <v>1</v>
-      </c>
       <c r="AU26" t="b">
         <v>1</v>
       </c>
@@ -3895,8 +3962,14 @@
       <c r="BV26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>98</v>
       </c>
@@ -3926,31 +3999,28 @@
       <c r="L27" t="b">
         <v>1</v>
       </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
       <c r="N27" t="b">
         <v>1</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
-      <c r="T27" t="b">
+      <c r="R27" t="b">
         <v>1</v>
       </c>
       <c r="V27" t="b">
         <v>1</v>
       </c>
-      <c r="W27" t="b">
-        <v>1</v>
-      </c>
       <c r="X27" t="b">
         <v>1</v>
       </c>
-      <c r="AB27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD27" t="b">
+      <c r="Y27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="b">
         <v>1</v>
       </c>
       <c r="AE27" t="b">
@@ -3971,24 +4041,24 @@
       <c r="AJ27" t="b">
         <v>1</v>
       </c>
+      <c r="AK27" t="b">
+        <v>1</v>
+      </c>
       <c r="AL27" t="b">
         <v>1</v>
       </c>
-      <c r="AO27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP27" t="b">
+      <c r="AN27" t="b">
         <v>1</v>
       </c>
       <c r="AQ27" t="b">
         <v>1</v>
       </c>
+      <c r="AR27" t="b">
+        <v>1</v>
+      </c>
       <c r="AS27" t="b">
         <v>1</v>
       </c>
-      <c r="AT27" t="b">
-        <v>1</v>
-      </c>
       <c r="AU27" t="b">
         <v>1</v>
       </c>
@@ -4016,19 +4086,22 @@
       <c r="BC27" t="b">
         <v>1</v>
       </c>
-      <c r="BG27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH27" t="b">
+      <c r="BD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE27" t="b">
         <v>1</v>
       </c>
       <c r="BI27" t="b">
         <v>1</v>
       </c>
+      <c r="BJ27" t="b">
+        <v>1</v>
+      </c>
       <c r="BK27" t="b">
         <v>1</v>
       </c>
-      <c r="BL27" t="b">
+      <c r="BM27" t="b">
         <v>1</v>
       </c>
       <c r="BN27" t="b">
@@ -4037,11 +4110,14 @@
       <c r="BP27" t="b">
         <v>1</v>
       </c>
-      <c r="BV27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BR27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -4066,33 +4142,30 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="U28" t="b">
-        <v>1</v>
-      </c>
-      <c r="V28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP28" t="b">
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="b">
         <v>1</v>
       </c>
       <c r="AQ28" t="b">
         <v>1</v>
       </c>
+      <c r="AR28" t="b">
+        <v>1</v>
+      </c>
       <c r="AS28" t="b">
         <v>1</v>
       </c>
-      <c r="AT28" t="b">
-        <v>1</v>
-      </c>
       <c r="AU28" t="b">
         <v>1</v>
       </c>
@@ -4120,17 +4193,23 @@
       <c r="BC28" t="b">
         <v>1</v>
       </c>
-      <c r="BK28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
@@ -4167,6 +4246,9 @@
       <c r="L29" t="b">
         <v>1</v>
       </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
       <c r="N29" t="b">
         <v>1</v>
       </c>
@@ -4176,9 +4258,6 @@
       <c r="R29" t="b">
         <v>1</v>
       </c>
-      <c r="S29" t="b">
-        <v>1</v>
-      </c>
       <c r="T29" t="b">
         <v>1</v>
       </c>
@@ -4188,19 +4267,16 @@
       <c r="V29" t="b">
         <v>1</v>
       </c>
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
       <c r="X29" t="b">
         <v>1</v>
       </c>
-      <c r="Y29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="b">
+      <c r="Z29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="b">
         <v>1</v>
       </c>
       <c r="AE29" t="b">
@@ -4221,24 +4297,24 @@
       <c r="AJ29" t="b">
         <v>1</v>
       </c>
+      <c r="AK29" t="b">
+        <v>1</v>
+      </c>
       <c r="AL29" t="b">
         <v>1</v>
       </c>
-      <c r="AO29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP29" t="b">
+      <c r="AN29" t="b">
         <v>1</v>
       </c>
       <c r="AQ29" t="b">
         <v>1</v>
       </c>
+      <c r="AR29" t="b">
+        <v>1</v>
+      </c>
       <c r="AS29" t="b">
         <v>1</v>
       </c>
-      <c r="AT29" t="b">
-        <v>1</v>
-      </c>
       <c r="AU29" t="b">
         <v>1</v>
       </c>
@@ -4266,19 +4342,22 @@
       <c r="BC29" t="b">
         <v>1</v>
       </c>
-      <c r="BG29" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH29" t="b">
+      <c r="BD29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE29" t="b">
         <v>1</v>
       </c>
       <c r="BI29" t="b">
         <v>1</v>
       </c>
+      <c r="BJ29" t="b">
+        <v>1</v>
+      </c>
       <c r="BK29" t="b">
         <v>1</v>
       </c>
-      <c r="BL29" t="b">
+      <c r="BM29" t="b">
         <v>1</v>
       </c>
       <c r="BN29" t="b">
@@ -4287,14 +4366,17 @@
       <c r="BP29" t="b">
         <v>1</v>
       </c>
-      <c r="BT29" t="b">
+      <c r="BR29" t="b">
         <v>1</v>
       </c>
       <c r="BV29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BX29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>98</v>
       </c>
@@ -4324,34 +4406,31 @@
       <c r="L30" t="b">
         <v>1</v>
       </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
       <c r="N30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
-      <c r="T30" t="b">
+      <c r="R30" t="b">
         <v>1</v>
       </c>
       <c r="V30" t="b">
         <v>1</v>
       </c>
-      <c r="W30" t="b">
-        <v>1</v>
-      </c>
       <c r="X30" t="b">
         <v>1</v>
       </c>
       <c r="Y30" t="b">
         <v>1</v>
       </c>
-      <c r="AB30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="b">
+      <c r="Z30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="b">
         <v>1</v>
       </c>
       <c r="AE30" t="b">
@@ -4372,24 +4451,24 @@
       <c r="AJ30" t="b">
         <v>1</v>
       </c>
+      <c r="AK30" t="b">
+        <v>1</v>
+      </c>
       <c r="AL30" t="b">
         <v>1</v>
       </c>
-      <c r="AO30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP30" t="b">
+      <c r="AN30" t="b">
         <v>1</v>
       </c>
       <c r="AQ30" t="b">
         <v>1</v>
       </c>
+      <c r="AR30" t="b">
+        <v>1</v>
+      </c>
       <c r="AS30" t="b">
         <v>1</v>
       </c>
-      <c r="AT30" t="b">
-        <v>1</v>
-      </c>
       <c r="AU30" t="b">
         <v>1</v>
       </c>
@@ -4417,19 +4496,22 @@
       <c r="BC30" t="b">
         <v>1</v>
       </c>
-      <c r="BG30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH30" t="b">
+      <c r="BD30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE30" t="b">
         <v>1</v>
       </c>
       <c r="BI30" t="b">
         <v>1</v>
       </c>
+      <c r="BJ30" t="b">
+        <v>1</v>
+      </c>
       <c r="BK30" t="b">
         <v>1</v>
       </c>
-      <c r="BL30" t="b">
+      <c r="BM30" t="b">
         <v>1</v>
       </c>
       <c r="BN30" t="b">
@@ -4438,11 +4520,14 @@
       <c r="BP30" t="b">
         <v>1</v>
       </c>
-      <c r="BV30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BR30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>102</v>
       </c>
@@ -4467,33 +4552,30 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="T31" t="b">
-        <v>1</v>
-      </c>
-      <c r="W31" t="b">
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="b">
         <v>1</v>
       </c>
       <c r="Y31" t="b">
         <v>1</v>
       </c>
-      <c r="AB31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP31" t="b">
+      <c r="AA31" t="b">
         <v>1</v>
       </c>
       <c r="AQ31" t="b">
         <v>1</v>
       </c>
+      <c r="AR31" t="b">
+        <v>1</v>
+      </c>
       <c r="AS31" t="b">
         <v>1</v>
       </c>
-      <c r="AT31" t="b">
-        <v>1</v>
-      </c>
       <c r="AU31" t="b">
         <v>1</v>
       </c>
@@ -4521,29 +4603,35 @@
       <c r="BC31" t="b">
         <v>1</v>
       </c>
-      <c r="BG31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH31" t="b">
+      <c r="BD31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE31" t="b">
         <v>1</v>
       </c>
       <c r="BI31" t="b">
         <v>1</v>
       </c>
+      <c r="BJ31" t="b">
+        <v>1</v>
+      </c>
       <c r="BK31" t="b">
         <v>1</v>
       </c>
-      <c r="BL31" t="b">
+      <c r="BM31" t="b">
         <v>1</v>
       </c>
       <c r="BN31" t="b">
         <v>1</v>
       </c>
-      <c r="BT31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
@@ -4558,14 +4646,16 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-      <c r="AE32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="AG32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -4595,19 +4685,12 @@
       <c r="L33" t="b">
         <v>1</v>
       </c>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
+      <c r="M33"/>
+      <c r="N33"/>
       <c r="P33" t="b">
         <v>1</v>
       </c>
-      <c r="AB33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="b">
+      <c r="R33" t="b">
         <v>1</v>
       </c>
       <c r="AE33" t="b">
@@ -4628,24 +4711,24 @@
       <c r="AJ33" t="b">
         <v>1</v>
       </c>
+      <c r="AK33" t="b">
+        <v>1</v>
+      </c>
       <c r="AL33" t="b">
         <v>1</v>
       </c>
-      <c r="AO33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP33" t="b">
+      <c r="AN33" t="b">
         <v>1</v>
       </c>
       <c r="AQ33" t="b">
         <v>1</v>
       </c>
+      <c r="AR33" t="b">
+        <v>1</v>
+      </c>
       <c r="AS33" t="b">
         <v>1</v>
       </c>
-      <c r="AT33" t="b">
-        <v>1</v>
-      </c>
       <c r="AU33" t="b">
         <v>1</v>
       </c>
@@ -4673,14 +4756,20 @@
       <c r="BC33" t="b">
         <v>1</v>
       </c>
-      <c r="BP33" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -4710,19 +4799,12 @@
       <c r="L34" t="b">
         <v>1</v>
       </c>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
+      <c r="M34"/>
+      <c r="N34"/>
       <c r="P34" t="b">
         <v>1</v>
       </c>
-      <c r="AB34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="b">
+      <c r="R34" t="b">
         <v>1</v>
       </c>
       <c r="AE34" t="b">
@@ -4743,24 +4825,24 @@
       <c r="AJ34" t="b">
         <v>1</v>
       </c>
+      <c r="AK34" t="b">
+        <v>1</v>
+      </c>
       <c r="AL34" t="b">
         <v>1</v>
       </c>
-      <c r="AO34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP34" t="b">
+      <c r="AN34" t="b">
         <v>1</v>
       </c>
       <c r="AQ34" t="b">
         <v>1</v>
       </c>
+      <c r="AR34" t="b">
+        <v>1</v>
+      </c>
       <c r="AS34" t="b">
         <v>1</v>
       </c>
-      <c r="AT34" t="b">
-        <v>1</v>
-      </c>
       <c r="AU34" t="b">
         <v>1</v>
       </c>
@@ -4788,14 +4870,20 @@
       <c r="BC34" t="b">
         <v>1</v>
       </c>
-      <c r="BP34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>121</v>
       </c>
@@ -4818,8 +4906,10 @@
       </c>
       <c r="K35"/>
       <c r="L35"/>
-    </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>121</v>
       </c>
@@ -4842,8 +4932,10 @@
       </c>
       <c r="K36"/>
       <c r="L36"/>
-    </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -4876,6 +4968,9 @@
       <c r="L37" t="b">
         <v>1</v>
       </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
       <c r="N37" t="b">
         <v>1</v>
       </c>
@@ -4885,25 +4980,19 @@
       <c r="R37" t="b">
         <v>1</v>
       </c>
-      <c r="S37" t="b">
+      <c r="T37" t="b">
         <v>1</v>
       </c>
       <c r="U37" t="b">
         <v>1</v>
       </c>
-      <c r="V37" t="b">
+      <c r="W37" t="b">
         <v>1</v>
       </c>
       <c r="X37" t="b">
         <v>1</v>
       </c>
-      <c r="AB37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD37" t="b">
+      <c r="Z37" t="b">
         <v>1</v>
       </c>
       <c r="AE37" t="b">
@@ -4924,24 +5013,24 @@
       <c r="AJ37" t="b">
         <v>1</v>
       </c>
+      <c r="AK37" t="b">
+        <v>1</v>
+      </c>
       <c r="AL37" t="b">
         <v>1</v>
       </c>
-      <c r="AO37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP37" t="b">
+      <c r="AN37" t="b">
         <v>1</v>
       </c>
       <c r="AQ37" t="b">
         <v>1</v>
       </c>
+      <c r="AR37" t="b">
+        <v>1</v>
+      </c>
       <c r="AS37" t="b">
         <v>1</v>
       </c>
-      <c r="AT37" t="b">
-        <v>1</v>
-      </c>
       <c r="AU37" t="b">
         <v>1</v>
       </c>
@@ -4969,14 +5058,20 @@
       <c r="BC37" t="b">
         <v>1</v>
       </c>
-      <c r="BP37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>98</v>
       </c>
@@ -5009,22 +5104,19 @@
       <c r="L38" t="b">
         <v>1</v>
       </c>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
       <c r="N38" t="b">
         <v>1</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
-      <c r="W38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD38" t="b">
+      <c r="R38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="b">
         <v>1</v>
       </c>
       <c r="AE38" t="b">
@@ -5045,24 +5137,24 @@
       <c r="AJ38" t="b">
         <v>1</v>
       </c>
+      <c r="AK38" t="b">
+        <v>1</v>
+      </c>
       <c r="AL38" t="b">
         <v>1</v>
       </c>
-      <c r="AO38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP38" t="b">
+      <c r="AN38" t="b">
         <v>1</v>
       </c>
       <c r="AQ38" t="b">
         <v>1</v>
       </c>
+      <c r="AR38" t="b">
+        <v>1</v>
+      </c>
       <c r="AS38" t="b">
         <v>1</v>
       </c>
-      <c r="AT38" t="b">
-        <v>1</v>
-      </c>
       <c r="AU38" t="b">
         <v>1</v>
       </c>
@@ -5090,14 +5182,20 @@
       <c r="BC38" t="b">
         <v>1</v>
       </c>
-      <c r="BP38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
@@ -5134,6 +5232,9 @@
       <c r="L39" t="b">
         <v>1</v>
       </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
       <c r="N39" t="b">
         <v>1</v>
       </c>
@@ -5143,9 +5244,6 @@
       <c r="R39" t="b">
         <v>1</v>
       </c>
-      <c r="S39" t="b">
-        <v>1</v>
-      </c>
       <c r="T39" t="b">
         <v>1</v>
       </c>
@@ -5164,13 +5262,10 @@
       <c r="Y39" t="b">
         <v>1</v>
       </c>
-      <c r="AB39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD39" t="b">
+      <c r="Z39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="b">
         <v>1</v>
       </c>
       <c r="AE39" t="b">
@@ -5191,24 +5286,24 @@
       <c r="AJ39" t="b">
         <v>1</v>
       </c>
+      <c r="AK39" t="b">
+        <v>1</v>
+      </c>
       <c r="AL39" t="b">
         <v>1</v>
       </c>
-      <c r="AO39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP39" t="b">
+      <c r="AN39" t="b">
         <v>1</v>
       </c>
       <c r="AQ39" t="b">
         <v>1</v>
       </c>
+      <c r="AR39" t="b">
+        <v>1</v>
+      </c>
       <c r="AS39" t="b">
         <v>1</v>
       </c>
-      <c r="AT39" t="b">
-        <v>1</v>
-      </c>
       <c r="AU39" t="b">
         <v>1</v>
       </c>
@@ -5293,8 +5388,14 @@
       <c r="BV39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>247</v>
       </c>
@@ -5314,11 +5415,13 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="BT40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="BV40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>99</v>
       </c>
@@ -5355,6 +5458,9 @@
       <c r="L41" t="b">
         <v>1</v>
       </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
       <c r="N41" t="b">
         <v>1</v>
       </c>
@@ -5364,9 +5470,6 @@
       <c r="R41" t="b">
         <v>1</v>
       </c>
-      <c r="S41" t="b">
-        <v>1</v>
-      </c>
       <c r="T41" t="b">
         <v>1</v>
       </c>
@@ -5385,13 +5488,10 @@
       <c r="Y41" t="b">
         <v>1</v>
       </c>
-      <c r="AB41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD41" t="b">
+      <c r="Z41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="b">
         <v>1</v>
       </c>
       <c r="AE41" t="b">
@@ -5412,24 +5512,24 @@
       <c r="AJ41" t="b">
         <v>1</v>
       </c>
+      <c r="AK41" t="b">
+        <v>1</v>
+      </c>
       <c r="AL41" t="b">
         <v>1</v>
       </c>
-      <c r="AO41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP41" t="b">
+      <c r="AN41" t="b">
         <v>1</v>
       </c>
       <c r="AQ41" t="b">
         <v>1</v>
       </c>
+      <c r="AR41" t="b">
+        <v>1</v>
+      </c>
       <c r="AS41" t="b">
         <v>1</v>
       </c>
-      <c r="AT41" t="b">
-        <v>1</v>
-      </c>
       <c r="AU41" t="b">
         <v>1</v>
       </c>
@@ -5514,8 +5614,14 @@
       <c r="BV41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>99</v>
       </c>
@@ -5552,6 +5658,9 @@
       <c r="L42" t="b">
         <v>1</v>
       </c>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
       <c r="N42" t="b">
         <v>1</v>
       </c>
@@ -5561,9 +5670,6 @@
       <c r="R42" t="b">
         <v>1</v>
       </c>
-      <c r="S42" t="b">
-        <v>1</v>
-      </c>
       <c r="T42" t="b">
         <v>1</v>
       </c>
@@ -5582,13 +5688,10 @@
       <c r="Y42" t="b">
         <v>1</v>
       </c>
-      <c r="AB42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="b">
+      <c r="Z42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="b">
         <v>1</v>
       </c>
       <c r="AE42" t="b">
@@ -5609,24 +5712,24 @@
       <c r="AJ42" t="b">
         <v>1</v>
       </c>
+      <c r="AK42" t="b">
+        <v>1</v>
+      </c>
       <c r="AL42" t="b">
         <v>1</v>
       </c>
-      <c r="AO42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP42" t="b">
+      <c r="AN42" t="b">
         <v>1</v>
       </c>
       <c r="AQ42" t="b">
         <v>1</v>
       </c>
+      <c r="AR42" t="b">
+        <v>1</v>
+      </c>
       <c r="AS42" t="b">
         <v>1</v>
       </c>
-      <c r="AT42" t="b">
-        <v>1</v>
-      </c>
       <c r="AU42" t="b">
         <v>1</v>
       </c>
@@ -5711,8 +5814,14 @@
       <c r="BV42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>355</v>
       </c>
@@ -5739,8 +5848,12 @@
         <v>1</v>
       </c>
       <c r="L43"/>
-    </row>
-    <row r="44" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>232</v>
       </c>
@@ -5755,11 +5868,13 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="AU44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="AW44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
@@ -5796,6 +5911,9 @@
       <c r="L45" t="b">
         <v>1</v>
       </c>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
       <c r="N45" t="b">
         <v>1</v>
       </c>
@@ -5805,9 +5923,6 @@
       <c r="R45" t="b">
         <v>1</v>
       </c>
-      <c r="S45" t="b">
-        <v>1</v>
-      </c>
       <c r="T45" t="b">
         <v>1</v>
       </c>
@@ -5826,13 +5941,10 @@
       <c r="Y45" t="b">
         <v>1</v>
       </c>
-      <c r="AB45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD45" t="b">
+      <c r="Z45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="b">
         <v>1</v>
       </c>
       <c r="AE45" t="b">
@@ -5853,24 +5965,24 @@
       <c r="AJ45" t="b">
         <v>1</v>
       </c>
+      <c r="AK45" t="b">
+        <v>1</v>
+      </c>
       <c r="AL45" t="b">
         <v>1</v>
       </c>
-      <c r="AO45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP45" t="b">
+      <c r="AN45" t="b">
         <v>1</v>
       </c>
       <c r="AQ45" t="b">
         <v>1</v>
       </c>
+      <c r="AR45" t="b">
+        <v>1</v>
+      </c>
       <c r="AS45" t="b">
         <v>1</v>
       </c>
-      <c r="AT45" t="b">
-        <v>1</v>
-      </c>
       <c r="AU45" t="b">
         <v>1</v>
       </c>
@@ -5955,8 +6067,14 @@
       <c r="BV45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
@@ -5983,19 +6101,16 @@
       <c r="L46" t="b">
         <v>1</v>
       </c>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
       <c r="N46" t="b">
         <v>1</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
-      <c r="AB46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD46" t="b">
+      <c r="R46" t="b">
         <v>1</v>
       </c>
       <c r="AE46" t="b">
@@ -6016,24 +6131,24 @@
       <c r="AJ46" t="b">
         <v>1</v>
       </c>
+      <c r="AK46" t="b">
+        <v>1</v>
+      </c>
       <c r="AL46" t="b">
         <v>1</v>
       </c>
-      <c r="AO46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP46" t="b">
+      <c r="AN46" t="b">
         <v>1</v>
       </c>
       <c r="AQ46" t="b">
         <v>1</v>
       </c>
+      <c r="AR46" t="b">
+        <v>1</v>
+      </c>
       <c r="AS46" t="b">
         <v>1</v>
       </c>
-      <c r="AT46" t="b">
-        <v>1</v>
-      </c>
       <c r="AU46" t="b">
         <v>1</v>
       </c>
@@ -6061,14 +6176,20 @@
       <c r="BC46" t="b">
         <v>1</v>
       </c>
-      <c r="BP46" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -6083,16 +6204,12 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
-      <c r="T47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT47" t="b">
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="V47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ47" t="b">
         <v>1</v>
       </c>
       <c r="AU47" t="b">
@@ -6128,26 +6245,32 @@
       <c r="BE47" t="b">
         <v>1</v>
       </c>
+      <c r="BF47" t="b">
+        <v>1</v>
+      </c>
       <c r="BG47" t="b">
         <v>1</v>
       </c>
-      <c r="BH47" t="b">
-        <v>1</v>
-      </c>
       <c r="BI47" t="b">
         <v>1</v>
       </c>
+      <c r="BJ47" t="b">
+        <v>1</v>
+      </c>
       <c r="BK47" t="b">
         <v>1</v>
       </c>
-      <c r="BL47" t="b">
+      <c r="BM47" t="b">
         <v>1</v>
       </c>
       <c r="BN47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -6184,6 +6307,9 @@
       <c r="L48" t="b">
         <v>1</v>
       </c>
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
       <c r="N48" t="b">
         <v>1</v>
       </c>
@@ -6193,9 +6319,6 @@
       <c r="R48" t="b">
         <v>1</v>
       </c>
-      <c r="S48" t="b">
-        <v>1</v>
-      </c>
       <c r="T48" t="b">
         <v>1</v>
       </c>
@@ -6214,13 +6337,10 @@
       <c r="Y48" t="b">
         <v>1</v>
       </c>
-      <c r="AB48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD48" t="b">
+      <c r="Z48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA48" t="b">
         <v>1</v>
       </c>
       <c r="AE48" t="b">
@@ -6241,24 +6361,24 @@
       <c r="AJ48" t="b">
         <v>1</v>
       </c>
+      <c r="AK48" t="b">
+        <v>1</v>
+      </c>
       <c r="AL48" t="b">
         <v>1</v>
       </c>
-      <c r="AO48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP48" t="b">
+      <c r="AN48" t="b">
         <v>1</v>
       </c>
       <c r="AQ48" t="b">
         <v>1</v>
       </c>
+      <c r="AR48" t="b">
+        <v>1</v>
+      </c>
       <c r="AS48" t="b">
         <v>1</v>
       </c>
-      <c r="AT48" t="b">
-        <v>1</v>
-      </c>
       <c r="AU48" t="b">
         <v>1</v>
       </c>
@@ -6343,8 +6463,14 @@
       <c r="BV48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW48" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>282</v>
       </c>
@@ -6359,11 +6485,13 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
-      <c r="R49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="T49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>258</v>
       </c>
@@ -6378,14 +6506,16 @@
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
-      <c r="AC50" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="AE50" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -6415,22 +6545,19 @@
       <c r="L51" t="b">
         <v>1</v>
       </c>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
       <c r="N51" t="b">
         <v>1</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
-      <c r="V51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD51" t="b">
+      <c r="R51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="b">
         <v>1</v>
       </c>
       <c r="AE51" t="b">
@@ -6451,24 +6578,24 @@
       <c r="AJ51" t="b">
         <v>1</v>
       </c>
+      <c r="AK51" t="b">
+        <v>1</v>
+      </c>
       <c r="AL51" t="b">
         <v>1</v>
       </c>
-      <c r="AO51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP51" t="b">
+      <c r="AN51" t="b">
         <v>1</v>
       </c>
       <c r="AQ51" t="b">
         <v>1</v>
       </c>
+      <c r="AR51" t="b">
+        <v>1</v>
+      </c>
       <c r="AS51" t="b">
         <v>1</v>
       </c>
-      <c r="AT51" t="b">
-        <v>1</v>
-      </c>
       <c r="AU51" t="b">
         <v>1</v>
       </c>
@@ -6496,14 +6623,20 @@
       <c r="BC51" t="b">
         <v>1</v>
       </c>
-      <c r="BP51" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD51" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE51" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR51" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>302</v>
       </c>
@@ -6518,11 +6651,13 @@
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
-      <c r="S52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="U52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -6537,13 +6672,9 @@
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="AO53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT53" t="b">
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="AQ53" t="b">
         <v>1</v>
       </c>
       <c r="AU53" t="b">
@@ -6579,14 +6710,20 @@
       <c r="BE53" t="b">
         <v>1</v>
       </c>
-      <c r="BK53" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BF53" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG53" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM53" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
@@ -6601,16 +6738,12 @@
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
-      <c r="Y54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT54" t="b">
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="AA54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ54" t="b">
         <v>1</v>
       </c>
       <c r="AU54" t="b">
@@ -6646,14 +6779,20 @@
       <c r="BE54" t="b">
         <v>1</v>
       </c>
-      <c r="BK54" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BF54" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG54" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM54" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>99</v>
       </c>
@@ -6690,6 +6829,9 @@
       <c r="L55" t="b">
         <v>1</v>
       </c>
+      <c r="M55" t="b">
+        <v>1</v>
+      </c>
       <c r="N55" t="b">
         <v>1</v>
       </c>
@@ -6699,9 +6841,6 @@
       <c r="R55" t="b">
         <v>1</v>
       </c>
-      <c r="S55" t="b">
-        <v>1</v>
-      </c>
       <c r="T55" t="b">
         <v>1</v>
       </c>
@@ -6720,13 +6859,10 @@
       <c r="Y55" t="b">
         <v>1</v>
       </c>
-      <c r="AB55" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC55" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD55" t="b">
+      <c r="Z55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA55" t="b">
         <v>1</v>
       </c>
       <c r="AE55" t="b">
@@ -6747,24 +6883,24 @@
       <c r="AJ55" t="b">
         <v>1</v>
       </c>
+      <c r="AK55" t="b">
+        <v>1</v>
+      </c>
       <c r="AL55" t="b">
         <v>1</v>
       </c>
-      <c r="AO55" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP55" t="b">
+      <c r="AN55" t="b">
         <v>1</v>
       </c>
       <c r="AQ55" t="b">
         <v>1</v>
       </c>
+      <c r="AR55" t="b">
+        <v>1</v>
+      </c>
       <c r="AS55" t="b">
         <v>1</v>
       </c>
-      <c r="AT55" t="b">
-        <v>1</v>
-      </c>
       <c r="AU55" t="b">
         <v>1</v>
       </c>
@@ -6849,8 +6985,14 @@
       <c r="BV55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW55" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>122</v>
       </c>
@@ -6865,29 +7007,31 @@
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
-      <c r="T56" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG56" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH56" t="b">
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="V56" t="b">
         <v>1</v>
       </c>
       <c r="BI56" t="b">
         <v>1</v>
       </c>
+      <c r="BJ56" t="b">
+        <v>1</v>
+      </c>
       <c r="BK56" t="b">
         <v>1</v>
       </c>
-      <c r="BL56" t="b">
+      <c r="BM56" t="b">
         <v>1</v>
       </c>
       <c r="BN56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>240</v>
       </c>
@@ -6907,8 +7051,10 @@
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-    </row>
-    <row r="58" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
@@ -6945,6 +7091,9 @@
       <c r="L58" t="b">
         <v>1</v>
       </c>
+      <c r="M58" t="b">
+        <v>1</v>
+      </c>
       <c r="N58" t="b">
         <v>1</v>
       </c>
@@ -6954,9 +7103,6 @@
       <c r="R58" t="b">
         <v>1</v>
       </c>
-      <c r="S58" t="b">
-        <v>1</v>
-      </c>
       <c r="T58" t="b">
         <v>1</v>
       </c>
@@ -6975,13 +7121,10 @@
       <c r="Y58" t="b">
         <v>1</v>
       </c>
-      <c r="AB58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD58" t="b">
+      <c r="Z58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA58" t="b">
         <v>1</v>
       </c>
       <c r="AE58" t="b">
@@ -7002,24 +7145,24 @@
       <c r="AJ58" t="b">
         <v>1</v>
       </c>
+      <c r="AK58" t="b">
+        <v>1</v>
+      </c>
       <c r="AL58" t="b">
         <v>1</v>
       </c>
-      <c r="AO58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP58" t="b">
+      <c r="AN58" t="b">
         <v>1</v>
       </c>
       <c r="AQ58" t="b">
         <v>1</v>
       </c>
+      <c r="AR58" t="b">
+        <v>1</v>
+      </c>
       <c r="AS58" t="b">
         <v>1</v>
       </c>
-      <c r="AT58" t="b">
-        <v>1</v>
-      </c>
       <c r="AU58" t="b">
         <v>1</v>
       </c>
@@ -7104,8 +7247,14 @@
       <c r="BV58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW58" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
@@ -7124,32 +7273,34 @@
       <c r="L59" t="b">
         <v>1</v>
       </c>
-      <c r="T59" t="b">
-        <v>1</v>
-      </c>
-      <c r="U59" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG59" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH59" t="b">
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="V59" t="b">
+        <v>1</v>
+      </c>
+      <c r="W59" t="b">
         <v>1</v>
       </c>
       <c r="BI59" t="b">
         <v>1</v>
       </c>
+      <c r="BJ59" t="b">
+        <v>1</v>
+      </c>
       <c r="BK59" t="b">
         <v>1</v>
       </c>
-      <c r="BL59" t="b">
+      <c r="BM59" t="b">
         <v>1</v>
       </c>
       <c r="BN59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="3" t="s">
         <v>357</v>
@@ -7166,8 +7317,10 @@
       <c r="L60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M60"/>
+      <c r="N60"/>
+    </row>
+    <row r="61" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>98</v>
       </c>
@@ -7200,25 +7353,22 @@
       <c r="L61" t="b">
         <v>1</v>
       </c>
+      <c r="M61" t="b">
+        <v>1</v>
+      </c>
       <c r="N61" t="b">
         <v>1</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
-      <c r="S61" t="b">
-        <v>1</v>
-      </c>
-      <c r="W61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD61" t="b">
+      <c r="R61" t="b">
+        <v>1</v>
+      </c>
+      <c r="U61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="b">
         <v>1</v>
       </c>
       <c r="AE61" t="b">
@@ -7239,24 +7389,24 @@
       <c r="AJ61" t="b">
         <v>1</v>
       </c>
+      <c r="AK61" t="b">
+        <v>1</v>
+      </c>
       <c r="AL61" t="b">
         <v>1</v>
       </c>
-      <c r="AO61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP61" t="b">
+      <c r="AN61" t="b">
         <v>1</v>
       </c>
       <c r="AQ61" t="b">
         <v>1</v>
       </c>
+      <c r="AR61" t="b">
+        <v>1</v>
+      </c>
       <c r="AS61" t="b">
         <v>1</v>
       </c>
-      <c r="AT61" t="b">
-        <v>1</v>
-      </c>
       <c r="AU61" t="b">
         <v>1</v>
       </c>
@@ -7284,17 +7434,23 @@
       <c r="BC61" t="b">
         <v>1</v>
       </c>
-      <c r="BP61" t="b">
+      <c r="BD61" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE61" t="b">
         <v>1</v>
       </c>
       <c r="BR61" t="b">
         <v>1</v>
       </c>
-      <c r="BV61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BT61" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -7324,22 +7480,19 @@
       <c r="L62" t="b">
         <v>1</v>
       </c>
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
       <c r="N62" t="b">
         <v>1</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
-      <c r="W62" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB62" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC62" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD62" t="b">
+      <c r="R62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="b">
         <v>1</v>
       </c>
       <c r="AE62" t="b">
@@ -7360,24 +7513,24 @@
       <c r="AJ62" t="b">
         <v>1</v>
       </c>
+      <c r="AK62" t="b">
+        <v>1</v>
+      </c>
       <c r="AL62" t="b">
         <v>1</v>
       </c>
-      <c r="AO62" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP62" t="b">
+      <c r="AN62" t="b">
         <v>1</v>
       </c>
       <c r="AQ62" t="b">
         <v>1</v>
       </c>
+      <c r="AR62" t="b">
+        <v>1</v>
+      </c>
       <c r="AS62" t="b">
         <v>1</v>
       </c>
-      <c r="AT62" t="b">
-        <v>1</v>
-      </c>
       <c r="AU62" t="b">
         <v>1</v>
       </c>
@@ -7405,14 +7558,20 @@
       <c r="BC62" t="b">
         <v>1</v>
       </c>
-      <c r="BP62" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD62" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE62" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR62" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>280</v>
       </c>
@@ -7427,23 +7586,25 @@
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
-      <c r="BG63" t="b">
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="BI63" t="b">
         <v>0</v>
       </c>
-      <c r="BJ63" t="b">
+      <c r="BL63" t="b">
         <v>0</v>
       </c>
-      <c r="BK63" t="b">
-        <v>1</v>
-      </c>
       <c r="BM63" t="b">
         <v>1</v>
       </c>
-      <c r="BN63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BO63" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>102</v>
       </c>
@@ -7466,24 +7627,21 @@
       </c>
       <c r="K64"/>
       <c r="L64"/>
-      <c r="AB64" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO64" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP64" t="b">
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" t="b">
         <v>1</v>
       </c>
       <c r="AQ64" t="b">
         <v>1</v>
       </c>
+      <c r="AR64" t="b">
+        <v>1</v>
+      </c>
       <c r="AS64" t="b">
         <v>1</v>
       </c>
-      <c r="AT64" t="b">
-        <v>1</v>
-      </c>
       <c r="AU64" t="b">
         <v>1</v>
       </c>
@@ -7511,14 +7669,20 @@
       <c r="BC64" t="b">
         <v>1</v>
       </c>
-      <c r="BK64" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD64" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE64" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM64" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>101</v>
       </c>
@@ -7533,18 +7697,14 @@
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
-      <c r="AO65" t="b">
-        <v>1</v>
-      </c>
+      <c r="M65"/>
+      <c r="N65"/>
       <c r="AQ65" t="b">
         <v>1</v>
       </c>
       <c r="AS65" t="b">
         <v>1</v>
       </c>
-      <c r="AT65" t="b">
-        <v>1</v>
-      </c>
       <c r="AU65" t="b">
         <v>1</v>
       </c>
@@ -7578,14 +7738,20 @@
       <c r="BE65" t="b">
         <v>1</v>
       </c>
-      <c r="BK65" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BF65" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG65" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM65" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>102</v>
       </c>
@@ -7600,24 +7766,21 @@
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
-      <c r="AB66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP66" t="b">
+      <c r="M66" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" t="b">
         <v>1</v>
       </c>
       <c r="AQ66" t="b">
         <v>1</v>
       </c>
+      <c r="AR66" t="b">
+        <v>1</v>
+      </c>
       <c r="AS66" t="b">
         <v>1</v>
       </c>
-      <c r="AT66" t="b">
-        <v>1</v>
-      </c>
       <c r="AU66" t="b">
         <v>1</v>
       </c>
@@ -7645,14 +7808,20 @@
       <c r="BC66" t="b">
         <v>1</v>
       </c>
-      <c r="BK66" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD66" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE66" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM66" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>306</v>
       </c>
@@ -7667,11 +7836,13 @@
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
-      <c r="AY67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="BA67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>306</v>
       </c>
@@ -7686,11 +7857,13 @@
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
-      <c r="AY68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="BA68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>124</v>
       </c>
@@ -7705,13 +7878,9 @@
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
-      <c r="BG69" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ69" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK69" t="b">
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="BI69" t="b">
         <v>1</v>
       </c>
       <c r="BL69" t="b">
@@ -7723,8 +7892,14 @@
       <c r="BN69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BO69" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>355</v>
       </c>
@@ -7751,8 +7926,10 @@
         <v>1</v>
       </c>
       <c r="L70"/>
-    </row>
-    <row r="71" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M70"/>
+      <c r="N70"/>
+    </row>
+    <row r="71" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>122</v>
       </c>
@@ -7767,35 +7944,37 @@
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
-      <c r="T71" t="b">
-        <v>1</v>
-      </c>
+      <c r="M71"/>
+      <c r="N71"/>
       <c r="V71" t="b">
         <v>1</v>
       </c>
-      <c r="W71" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG71" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH71" t="b">
+      <c r="X71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="b">
         <v>1</v>
       </c>
       <c r="BI71" t="b">
         <v>1</v>
       </c>
+      <c r="BJ71" t="b">
+        <v>1</v>
+      </c>
       <c r="BK71" t="b">
         <v>1</v>
       </c>
-      <c r="BL71" t="b">
+      <c r="BM71" t="b">
         <v>1</v>
       </c>
       <c r="BN71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>99</v>
       </c>
@@ -7832,6 +8011,9 @@
       <c r="L72" t="b">
         <v>1</v>
       </c>
+      <c r="M72" t="b">
+        <v>1</v>
+      </c>
       <c r="N72" t="b">
         <v>1</v>
       </c>
@@ -7841,9 +8023,6 @@
       <c r="R72" t="b">
         <v>1</v>
       </c>
-      <c r="S72" t="b">
-        <v>1</v>
-      </c>
       <c r="T72" t="b">
         <v>1</v>
       </c>
@@ -7862,13 +8041,10 @@
       <c r="Y72" t="b">
         <v>1</v>
       </c>
-      <c r="AB72" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC72" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD72" t="b">
+      <c r="Z72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA72" t="b">
         <v>1</v>
       </c>
       <c r="AE72" t="b">
@@ -7889,24 +8065,24 @@
       <c r="AJ72" t="b">
         <v>1</v>
       </c>
+      <c r="AK72" t="b">
+        <v>1</v>
+      </c>
       <c r="AL72" t="b">
         <v>1</v>
       </c>
-      <c r="AO72" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP72" t="b">
+      <c r="AN72" t="b">
         <v>1</v>
       </c>
       <c r="AQ72" t="b">
         <v>1</v>
       </c>
+      <c r="AR72" t="b">
+        <v>1</v>
+      </c>
       <c r="AS72" t="b">
         <v>1</v>
       </c>
-      <c r="AT72" t="b">
-        <v>1</v>
-      </c>
       <c r="AU72" t="b">
         <v>1</v>
       </c>
@@ -7991,8 +8167,14 @@
       <c r="BV72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW72" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>355</v>
       </c>
@@ -8019,8 +8201,10 @@
         <v>1</v>
       </c>
       <c r="L73"/>
-    </row>
-    <row r="74" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M73"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>287</v>
       </c>
@@ -8035,11 +8219,13 @@
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
-      <c r="AD74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="AF74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>122</v>
       </c>
@@ -8054,29 +8240,31 @@
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
-      <c r="T75" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG75" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH75" t="b">
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="V75" t="b">
         <v>1</v>
       </c>
       <c r="BI75" t="b">
         <v>1</v>
       </c>
+      <c r="BJ75" t="b">
+        <v>1</v>
+      </c>
       <c r="BK75" t="b">
         <v>1</v>
       </c>
-      <c r="BL75" t="b">
+      <c r="BM75" t="b">
         <v>1</v>
       </c>
       <c r="BN75" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>299</v>
       </c>
@@ -8091,11 +8279,13 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
-      <c r="BH76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="BJ76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>258</v>
       </c>
@@ -8110,20 +8300,22 @@
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
-      <c r="AC77" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH77" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU77" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="AE77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ77" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW77" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -8160,6 +8352,9 @@
       <c r="L78" t="b">
         <v>1</v>
       </c>
+      <c r="M78" t="b">
+        <v>1</v>
+      </c>
       <c r="N78" t="b">
         <v>1</v>
       </c>
@@ -8169,9 +8364,6 @@
       <c r="R78" t="b">
         <v>1</v>
       </c>
-      <c r="S78" t="b">
-        <v>1</v>
-      </c>
       <c r="T78" t="b">
         <v>1</v>
       </c>
@@ -8190,13 +8382,10 @@
       <c r="Y78" t="b">
         <v>1</v>
       </c>
-      <c r="AB78" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC78" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD78" t="b">
+      <c r="Z78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA78" t="b">
         <v>1</v>
       </c>
       <c r="AE78" t="b">
@@ -8217,24 +8406,24 @@
       <c r="AJ78" t="b">
         <v>1</v>
       </c>
+      <c r="AK78" t="b">
+        <v>1</v>
+      </c>
       <c r="AL78" t="b">
         <v>1</v>
       </c>
-      <c r="AO78" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP78" t="b">
+      <c r="AN78" t="b">
         <v>1</v>
       </c>
       <c r="AQ78" t="b">
         <v>1</v>
       </c>
+      <c r="AR78" t="b">
+        <v>1</v>
+      </c>
       <c r="AS78" t="b">
         <v>1</v>
       </c>
-      <c r="AT78" t="b">
-        <v>1</v>
-      </c>
       <c r="AU78" t="b">
         <v>1</v>
       </c>
@@ -8319,8 +8508,14 @@
       <c r="BV78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW78" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
@@ -8357,6 +8552,9 @@
       <c r="L79" t="b">
         <v>1</v>
       </c>
+      <c r="M79" t="b">
+        <v>1</v>
+      </c>
       <c r="N79" t="b">
         <v>1</v>
       </c>
@@ -8366,9 +8564,6 @@
       <c r="R79" t="b">
         <v>1</v>
       </c>
-      <c r="S79" t="b">
-        <v>1</v>
-      </c>
       <c r="T79" t="b">
         <v>1</v>
       </c>
@@ -8387,13 +8582,10 @@
       <c r="Y79" t="b">
         <v>1</v>
       </c>
-      <c r="AB79" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC79" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD79" t="b">
+      <c r="Z79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA79" t="b">
         <v>1</v>
       </c>
       <c r="AE79" t="b">
@@ -8414,24 +8606,24 @@
       <c r="AJ79" t="b">
         <v>1</v>
       </c>
+      <c r="AK79" t="b">
+        <v>1</v>
+      </c>
       <c r="AL79" t="b">
         <v>1</v>
       </c>
-      <c r="AO79" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP79" t="b">
+      <c r="AN79" t="b">
         <v>1</v>
       </c>
       <c r="AQ79" t="b">
         <v>1</v>
       </c>
+      <c r="AR79" t="b">
+        <v>1</v>
+      </c>
       <c r="AS79" t="b">
         <v>1</v>
       </c>
-      <c r="AT79" t="b">
-        <v>1</v>
-      </c>
       <c r="AU79" t="b">
         <v>1</v>
       </c>
@@ -8516,8 +8708,14 @@
       <c r="BV79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW79" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>299</v>
       </c>
@@ -8532,11 +8730,13 @@
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
-      <c r="BH80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="BJ80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>302</v>
       </c>
@@ -8551,11 +8751,13 @@
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
-      <c r="S81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="U81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>355</v>
       </c>
@@ -8582,8 +8784,10 @@
         <v>1</v>
       </c>
       <c r="L82"/>
-    </row>
-    <row r="83" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M82"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>321</v>
       </c>
@@ -8598,11 +8802,13 @@
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
-      <c r="U83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="W83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>321</v>
       </c>
@@ -8617,11 +8823,13 @@
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
-      <c r="U84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="W84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>240</v>
       </c>
@@ -8646,17 +8854,19 @@
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
-      <c r="U85" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY85" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="W85" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA85" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>229</v>
       </c>
@@ -8683,11 +8893,13 @@
       <c r="L86" t="b">
         <v>1</v>
       </c>
-      <c r="BC86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="BE86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
@@ -8720,6 +8932,9 @@
       <c r="L87" t="b">
         <v>1</v>
       </c>
+      <c r="M87" t="b">
+        <v>1</v>
+      </c>
       <c r="N87" t="b">
         <v>1</v>
       </c>
@@ -8729,19 +8944,13 @@
       <c r="R87" t="b">
         <v>1</v>
       </c>
-      <c r="S87" t="b">
-        <v>1</v>
-      </c>
-      <c r="W87" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB87" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC87" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD87" t="b">
+      <c r="T87" t="b">
+        <v>1</v>
+      </c>
+      <c r="U87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y87" t="b">
         <v>1</v>
       </c>
       <c r="AE87" t="b">
@@ -8762,24 +8971,24 @@
       <c r="AJ87" t="b">
         <v>1</v>
       </c>
+      <c r="AK87" t="b">
+        <v>1</v>
+      </c>
       <c r="AL87" t="b">
         <v>1</v>
       </c>
-      <c r="AO87" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP87" t="b">
+      <c r="AN87" t="b">
         <v>1</v>
       </c>
       <c r="AQ87" t="b">
         <v>1</v>
       </c>
+      <c r="AR87" t="b">
+        <v>1</v>
+      </c>
       <c r="AS87" t="b">
         <v>1</v>
       </c>
-      <c r="AT87" t="b">
-        <v>1</v>
-      </c>
       <c r="AU87" t="b">
         <v>1</v>
       </c>
@@ -8807,17 +9016,23 @@
       <c r="BC87" t="b">
         <v>1</v>
       </c>
-      <c r="BP87" t="b">
+      <c r="BD87" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE87" t="b">
         <v>1</v>
       </c>
       <c r="BR87" t="b">
         <v>1</v>
       </c>
-      <c r="BV87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BT87" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -8850,6 +9065,9 @@
       <c r="L88" t="b">
         <v>1</v>
       </c>
+      <c r="M88" t="b">
+        <v>1</v>
+      </c>
       <c r="N88" t="b">
         <v>1</v>
       </c>
@@ -8865,16 +9083,10 @@
       <c r="V88" t="b">
         <v>1</v>
       </c>
-      <c r="W88" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB88" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC88" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD88" t="b">
+      <c r="X88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y88" t="b">
         <v>1</v>
       </c>
       <c r="AE88" t="b">
@@ -8895,24 +9107,24 @@
       <c r="AJ88" t="b">
         <v>1</v>
       </c>
+      <c r="AK88" t="b">
+        <v>1</v>
+      </c>
       <c r="AL88" t="b">
         <v>1</v>
       </c>
-      <c r="AO88" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP88" t="b">
+      <c r="AN88" t="b">
         <v>1</v>
       </c>
       <c r="AQ88" t="b">
         <v>1</v>
       </c>
+      <c r="AR88" t="b">
+        <v>1</v>
+      </c>
       <c r="AS88" t="b">
         <v>1</v>
       </c>
-      <c r="AT88" t="b">
-        <v>1</v>
-      </c>
       <c r="AU88" t="b">
         <v>1</v>
       </c>
@@ -8940,19 +9152,22 @@
       <c r="BC88" t="b">
         <v>1</v>
       </c>
-      <c r="BG88" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH88" t="b">
+      <c r="BD88" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE88" t="b">
         <v>1</v>
       </c>
       <c r="BI88" t="b">
         <v>1</v>
       </c>
+      <c r="BJ88" t="b">
+        <v>1</v>
+      </c>
       <c r="BK88" t="b">
         <v>1</v>
       </c>
-      <c r="BL88" t="b">
+      <c r="BM88" t="b">
         <v>1</v>
       </c>
       <c r="BN88" t="b">
@@ -8961,11 +9176,14 @@
       <c r="BP88" t="b">
         <v>1</v>
       </c>
-      <c r="BV88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BR88" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>302</v>
       </c>
@@ -8980,11 +9198,13 @@
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
-      <c r="S89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="U89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>306</v>
       </c>
@@ -8999,11 +9219,13 @@
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
-      <c r="AY90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="BA90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>306</v>
       </c>
@@ -9018,11 +9240,13 @@
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91"/>
-      <c r="AY91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="BA91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>240</v>
       </c>
@@ -9047,14 +9271,16 @@
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92"/>
-      <c r="AY92" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="BA92" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>306</v>
       </c>
@@ -9072,11 +9298,13 @@
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
-      <c r="AY93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="BA93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="3" t="s">
         <v>347</v>
@@ -9092,8 +9320,10 @@
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
-    </row>
-    <row r="95" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -9130,6 +9360,9 @@
       <c r="L95" t="b">
         <v>1</v>
       </c>
+      <c r="M95" t="b">
+        <v>1</v>
+      </c>
       <c r="N95" t="b">
         <v>1</v>
       </c>
@@ -9139,9 +9372,6 @@
       <c r="R95" t="b">
         <v>1</v>
       </c>
-      <c r="S95" t="b">
-        <v>1</v>
-      </c>
       <c r="T95" t="b">
         <v>1</v>
       </c>
@@ -9160,13 +9390,10 @@
       <c r="Y95" t="b">
         <v>1</v>
       </c>
-      <c r="AB95" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC95" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD95" t="b">
+      <c r="Z95" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA95" t="b">
         <v>1</v>
       </c>
       <c r="AE95" t="b">
@@ -9187,24 +9414,24 @@
       <c r="AJ95" t="b">
         <v>1</v>
       </c>
+      <c r="AK95" t="b">
+        <v>1</v>
+      </c>
       <c r="AL95" t="b">
         <v>1</v>
       </c>
-      <c r="AO95" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP95" t="b">
+      <c r="AN95" t="b">
         <v>1</v>
       </c>
       <c r="AQ95" t="b">
         <v>1</v>
       </c>
+      <c r="AR95" t="b">
+        <v>1</v>
+      </c>
       <c r="AS95" t="b">
         <v>1</v>
       </c>
-      <c r="AT95" t="b">
-        <v>1</v>
-      </c>
       <c r="AU95" t="b">
         <v>1</v>
       </c>
@@ -9289,8 +9516,14 @@
       <c r="BV95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW95" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>121</v>
       </c>
@@ -9313,8 +9546,10 @@
       </c>
       <c r="K96"/>
       <c r="L96"/>
-    </row>
-    <row r="97" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -9351,6 +9586,9 @@
       <c r="L97" t="b">
         <v>1</v>
       </c>
+      <c r="M97" t="b">
+        <v>1</v>
+      </c>
       <c r="N97" t="b">
         <v>1</v>
       </c>
@@ -9360,9 +9598,6 @@
       <c r="R97" t="b">
         <v>1</v>
       </c>
-      <c r="S97" t="b">
-        <v>1</v>
-      </c>
       <c r="T97" t="b">
         <v>1</v>
       </c>
@@ -9381,13 +9616,10 @@
       <c r="Y97" t="b">
         <v>1</v>
       </c>
-      <c r="AB97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD97" t="b">
+      <c r="Z97" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA97" t="b">
         <v>1</v>
       </c>
       <c r="AE97" t="b">
@@ -9408,24 +9640,24 @@
       <c r="AJ97" t="b">
         <v>1</v>
       </c>
+      <c r="AK97" t="b">
+        <v>1</v>
+      </c>
       <c r="AL97" t="b">
         <v>1</v>
       </c>
-      <c r="AO97" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP97" t="b">
+      <c r="AN97" t="b">
         <v>1</v>
       </c>
       <c r="AQ97" t="b">
         <v>1</v>
       </c>
+      <c r="AR97" t="b">
+        <v>1</v>
+      </c>
       <c r="AS97" t="b">
         <v>1</v>
       </c>
-      <c r="AT97" t="b">
-        <v>1</v>
-      </c>
       <c r="AU97" t="b">
         <v>1</v>
       </c>
@@ -9510,8 +9742,14 @@
       <c r="BV97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW97" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>334</v>
       </c>
@@ -9526,11 +9764,13 @@
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
-      <c r="Y98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="AA98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
@@ -9545,24 +9785,21 @@
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
-      <c r="AB99" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO99" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP99" t="b">
+      <c r="M99" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" t="b">
         <v>1</v>
       </c>
       <c r="AQ99" t="b">
         <v>1</v>
       </c>
+      <c r="AR99" t="b">
+        <v>1</v>
+      </c>
       <c r="AS99" t="b">
         <v>1</v>
       </c>
-      <c r="AT99" t="b">
-        <v>1</v>
-      </c>
       <c r="AU99" t="b">
         <v>1</v>
       </c>
@@ -9590,14 +9827,20 @@
       <c r="BC99" t="b">
         <v>1</v>
       </c>
-      <c r="BK99" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD99" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE99" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM99" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>258</v>
       </c>
@@ -9612,14 +9855,16 @@
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
-      <c r="AC100" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="AE100" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>115</v>
       </c>
@@ -9634,14 +9879,16 @@
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101"/>
-      <c r="BD101" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="BF101" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>115</v>
       </c>
@@ -9656,14 +9903,16 @@
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102"/>
-      <c r="BD102" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="BF102" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
@@ -9678,14 +9927,16 @@
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103"/>
-      <c r="BD103" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE103" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="BF103" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>334</v>
       </c>
@@ -9700,11 +9951,13 @@
       <c r="J104"/>
       <c r="K104"/>
       <c r="L104"/>
-      <c r="Y104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="AA104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>240</v>
       </c>
@@ -9729,14 +9982,16 @@
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105"/>
-      <c r="AY105" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="BA105" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>306</v>
       </c>
@@ -9751,11 +10006,13 @@
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106"/>
-      <c r="AY106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="BA106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>102</v>
       </c>
@@ -9770,24 +10027,21 @@
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107"/>
-      <c r="AB107" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO107" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP107" t="b">
+      <c r="M107" t="b">
+        <v>1</v>
+      </c>
+      <c r="N107" t="b">
         <v>1</v>
       </c>
       <c r="AQ107" t="b">
         <v>1</v>
       </c>
+      <c r="AR107" t="b">
+        <v>1</v>
+      </c>
       <c r="AS107" t="b">
         <v>1</v>
       </c>
-      <c r="AT107" t="b">
-        <v>1</v>
-      </c>
       <c r="AU107" t="b">
         <v>1</v>
       </c>
@@ -9815,14 +10069,20 @@
       <c r="BC107" t="b">
         <v>1</v>
       </c>
-      <c r="BK107" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN107" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD107" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE107" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM107" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>258</v>
       </c>
@@ -9837,35 +10097,37 @@
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108"/>
-      <c r="T108" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC108" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG108" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH108" t="b">
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="V108" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE108" t="b">
         <v>1</v>
       </c>
       <c r="BI108" t="b">
         <v>1</v>
       </c>
+      <c r="BJ108" t="b">
+        <v>1</v>
+      </c>
       <c r="BK108" t="b">
         <v>1</v>
       </c>
-      <c r="BL108" t="b">
+      <c r="BM108" t="b">
         <v>1</v>
       </c>
       <c r="BN108" t="b">
         <v>1</v>
       </c>
-      <c r="BR108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP108" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>355</v>
       </c>
@@ -9892,8 +10154,10 @@
         <v>1</v>
       </c>
       <c r="L109"/>
-    </row>
-    <row r="110" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>124</v>
       </c>
@@ -9908,13 +10172,9 @@
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110"/>
-      <c r="BG110" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ110" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK110" t="b">
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="BI110" t="b">
         <v>1</v>
       </c>
       <c r="BL110" t="b">
@@ -9926,8 +10186,14 @@
       <c r="BN110" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BO110" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>124</v>
       </c>
@@ -9942,13 +10208,9 @@
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
-      <c r="BG111" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ111" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK111" t="b">
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="BI111" t="b">
         <v>1</v>
       </c>
       <c r="BL111" t="b">
@@ -9960,8 +10222,14 @@
       <c r="BN111" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BO111" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>98</v>
       </c>
@@ -9994,22 +10262,19 @@
       <c r="L112" t="b">
         <v>1</v>
       </c>
+      <c r="M112" t="b">
+        <v>1</v>
+      </c>
       <c r="N112" t="b">
         <v>1</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
-      <c r="W112" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB112" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC112" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD112" t="b">
+      <c r="R112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y112" t="b">
         <v>1</v>
       </c>
       <c r="AE112" t="b">
@@ -10030,24 +10295,24 @@
       <c r="AJ112" t="b">
         <v>1</v>
       </c>
+      <c r="AK112" t="b">
+        <v>1</v>
+      </c>
       <c r="AL112" t="b">
         <v>1</v>
       </c>
-      <c r="AO112" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP112" t="b">
+      <c r="AN112" t="b">
         <v>1</v>
       </c>
       <c r="AQ112" t="b">
         <v>1</v>
       </c>
+      <c r="AR112" t="b">
+        <v>1</v>
+      </c>
       <c r="AS112" t="b">
         <v>1</v>
       </c>
-      <c r="AT112" t="b">
-        <v>1</v>
-      </c>
       <c r="AU112" t="b">
         <v>1</v>
       </c>
@@ -10075,14 +10340,20 @@
       <c r="BC112" t="b">
         <v>1</v>
       </c>
-      <c r="BP112" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD112" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE112" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR112" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>121</v>
       </c>
@@ -10109,8 +10380,10 @@
       <c r="L113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M113"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>247</v>
       </c>
@@ -10130,14 +10403,16 @@
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
-      <c r="AY114" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="BA114" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>240</v>
       </c>
@@ -10162,14 +10437,16 @@
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115"/>
-      <c r="AY115" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="BA115" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="3" t="s">
         <v>349</v>
@@ -10188,8 +10465,10 @@
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116"/>
-    </row>
-    <row r="117" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M116"/>
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>130</v>
       </c>
@@ -10204,14 +10483,16 @@
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117"/>
-      <c r="AE117" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="AG117" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="3" t="s">
         <v>44</v>
@@ -10227,8 +10508,10 @@
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118"/>
-    </row>
-    <row r="119" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M118"/>
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>99</v>
       </c>
@@ -10265,6 +10548,9 @@
       <c r="L119" t="b">
         <v>1</v>
       </c>
+      <c r="M119" t="b">
+        <v>1</v>
+      </c>
       <c r="N119" t="b">
         <v>1</v>
       </c>
@@ -10274,9 +10560,6 @@
       <c r="R119" t="b">
         <v>1</v>
       </c>
-      <c r="S119" t="b">
-        <v>1</v>
-      </c>
       <c r="T119" t="b">
         <v>1</v>
       </c>
@@ -10295,13 +10578,10 @@
       <c r="Y119" t="b">
         <v>1</v>
       </c>
-      <c r="AB119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD119" t="b">
+      <c r="Z119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA119" t="b">
         <v>1</v>
       </c>
       <c r="AE119" t="b">
@@ -10322,24 +10602,24 @@
       <c r="AJ119" t="b">
         <v>1</v>
       </c>
+      <c r="AK119" t="b">
+        <v>1</v>
+      </c>
       <c r="AL119" t="b">
         <v>1</v>
       </c>
-      <c r="AO119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP119" t="b">
+      <c r="AN119" t="b">
         <v>1</v>
       </c>
       <c r="AQ119" t="b">
         <v>1</v>
       </c>
+      <c r="AR119" t="b">
+        <v>1</v>
+      </c>
       <c r="AS119" t="b">
         <v>1</v>
       </c>
-      <c r="AT119" t="b">
-        <v>1</v>
-      </c>
       <c r="AU119" t="b">
         <v>1</v>
       </c>
@@ -10424,8 +10704,14 @@
       <c r="BV119" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW119" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>232</v>
       </c>
@@ -10440,11 +10726,13 @@
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120"/>
-      <c r="AU120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="AW120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>99</v>
       </c>
@@ -10481,6 +10769,9 @@
       <c r="L121" t="b">
         <v>1</v>
       </c>
+      <c r="M121" t="b">
+        <v>1</v>
+      </c>
       <c r="N121" t="b">
         <v>1</v>
       </c>
@@ -10490,9 +10781,6 @@
       <c r="R121" t="b">
         <v>1</v>
       </c>
-      <c r="S121" t="b">
-        <v>1</v>
-      </c>
       <c r="T121" t="b">
         <v>1</v>
       </c>
@@ -10511,13 +10799,10 @@
       <c r="Y121" t="b">
         <v>1</v>
       </c>
-      <c r="AB121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD121" t="b">
+      <c r="Z121" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA121" t="b">
         <v>1</v>
       </c>
       <c r="AE121" t="b">
@@ -10538,24 +10823,24 @@
       <c r="AJ121" t="b">
         <v>1</v>
       </c>
+      <c r="AK121" t="b">
+        <v>1</v>
+      </c>
       <c r="AL121" t="b">
         <v>1</v>
       </c>
-      <c r="AO121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP121" t="b">
+      <c r="AN121" t="b">
         <v>1</v>
       </c>
       <c r="AQ121" t="b">
         <v>1</v>
       </c>
+      <c r="AR121" t="b">
+        <v>1</v>
+      </c>
       <c r="AS121" t="b">
         <v>1</v>
       </c>
-      <c r="AT121" t="b">
-        <v>1</v>
-      </c>
       <c r="AU121" t="b">
         <v>1</v>
       </c>
@@ -10640,8 +10925,14 @@
       <c r="BV121" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW121" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>282</v>
       </c>
@@ -10656,14 +10947,16 @@
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122"/>
-      <c r="R122" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="T122" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>313</v>
       </c>
@@ -10678,11 +10971,13 @@
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
-      <c r="BR123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="BT123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>238</v>
       </c>
@@ -10697,11 +10992,13 @@
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
-      <c r="AQ124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="AS124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>282</v>
       </c>
@@ -10716,11 +11013,13 @@
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
-      <c r="R125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="T125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>334</v>
       </c>
@@ -10735,11 +11034,13 @@
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126"/>
-      <c r="Y126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="AA126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>99</v>
       </c>
@@ -10776,6 +11077,9 @@
       <c r="L127" t="b">
         <v>1</v>
       </c>
+      <c r="M127" t="b">
+        <v>1</v>
+      </c>
       <c r="N127" t="b">
         <v>1</v>
       </c>
@@ -10785,9 +11089,6 @@
       <c r="R127" t="b">
         <v>1</v>
       </c>
-      <c r="S127" t="b">
-        <v>1</v>
-      </c>
       <c r="T127" t="b">
         <v>1</v>
       </c>
@@ -10806,13 +11107,10 @@
       <c r="Y127" t="b">
         <v>1</v>
       </c>
-      <c r="AB127" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC127" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD127" t="b">
+      <c r="Z127" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA127" t="b">
         <v>1</v>
       </c>
       <c r="AE127" t="b">
@@ -10833,24 +11131,24 @@
       <c r="AJ127" t="b">
         <v>1</v>
       </c>
+      <c r="AK127" t="b">
+        <v>1</v>
+      </c>
       <c r="AL127" t="b">
         <v>1</v>
       </c>
-      <c r="AO127" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP127" t="b">
+      <c r="AN127" t="b">
         <v>1</v>
       </c>
       <c r="AQ127" t="b">
         <v>1</v>
       </c>
+      <c r="AR127" t="b">
+        <v>1</v>
+      </c>
       <c r="AS127" t="b">
         <v>1</v>
       </c>
-      <c r="AT127" t="b">
-        <v>1</v>
-      </c>
       <c r="AU127" t="b">
         <v>1</v>
       </c>
@@ -10935,8 +11233,14 @@
       <c r="BV127" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW127" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>99</v>
       </c>
@@ -10973,6 +11277,9 @@
       <c r="L128" t="b">
         <v>1</v>
       </c>
+      <c r="M128" t="b">
+        <v>1</v>
+      </c>
       <c r="N128" t="b">
         <v>1</v>
       </c>
@@ -10982,9 +11289,6 @@
       <c r="R128" t="b">
         <v>1</v>
       </c>
-      <c r="S128" t="b">
-        <v>1</v>
-      </c>
       <c r="T128" t="b">
         <v>1</v>
       </c>
@@ -11003,13 +11307,10 @@
       <c r="Y128" t="b">
         <v>1</v>
       </c>
-      <c r="AB128" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC128" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD128" t="b">
+      <c r="Z128" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA128" t="b">
         <v>1</v>
       </c>
       <c r="AE128" t="b">
@@ -11030,24 +11331,24 @@
       <c r="AJ128" t="b">
         <v>1</v>
       </c>
+      <c r="AK128" t="b">
+        <v>1</v>
+      </c>
       <c r="AL128" t="b">
         <v>1</v>
       </c>
-      <c r="AO128" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP128" t="b">
+      <c r="AN128" t="b">
         <v>1</v>
       </c>
       <c r="AQ128" t="b">
         <v>1</v>
       </c>
+      <c r="AR128" t="b">
+        <v>1</v>
+      </c>
       <c r="AS128" t="b">
         <v>1</v>
       </c>
-      <c r="AT128" t="b">
-        <v>1</v>
-      </c>
       <c r="AU128" t="b">
         <v>1</v>
       </c>
@@ -11132,8 +11433,14 @@
       <c r="BV128" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW128" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>98</v>
       </c>
@@ -11163,6 +11470,9 @@
       <c r="L129" t="b">
         <v>1</v>
       </c>
+      <c r="M129" t="b">
+        <v>1</v>
+      </c>
       <c r="N129" t="b">
         <v>1</v>
       </c>
@@ -11172,16 +11482,10 @@
       <c r="R129" t="b">
         <v>1</v>
       </c>
-      <c r="W129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD129" t="b">
+      <c r="T129" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y129" t="b">
         <v>1</v>
       </c>
       <c r="AE129" t="b">
@@ -11202,24 +11506,24 @@
       <c r="AJ129" t="b">
         <v>1</v>
       </c>
+      <c r="AK129" t="b">
+        <v>1</v>
+      </c>
       <c r="AL129" t="b">
         <v>1</v>
       </c>
-      <c r="AO129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP129" t="b">
+      <c r="AN129" t="b">
         <v>1</v>
       </c>
       <c r="AQ129" t="b">
         <v>1</v>
       </c>
+      <c r="AR129" t="b">
+        <v>1</v>
+      </c>
       <c r="AS129" t="b">
         <v>1</v>
       </c>
-      <c r="AT129" t="b">
-        <v>1</v>
-      </c>
       <c r="AU129" t="b">
         <v>1</v>
       </c>
@@ -11247,14 +11551,20 @@
       <c r="BC129" t="b">
         <v>1</v>
       </c>
-      <c r="BP129" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD129" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE129" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR129" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>98</v>
       </c>
@@ -11284,6 +11594,9 @@
       <c r="L130" t="b">
         <v>1</v>
       </c>
+      <c r="M130" t="b">
+        <v>1</v>
+      </c>
       <c r="N130" t="b">
         <v>1</v>
       </c>
@@ -11293,16 +11606,10 @@
       <c r="R130" t="b">
         <v>1</v>
       </c>
-      <c r="W130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD130" t="b">
+      <c r="T130" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y130" t="b">
         <v>1</v>
       </c>
       <c r="AE130" t="b">
@@ -11323,24 +11630,24 @@
       <c r="AJ130" t="b">
         <v>1</v>
       </c>
+      <c r="AK130" t="b">
+        <v>1</v>
+      </c>
       <c r="AL130" t="b">
         <v>1</v>
       </c>
-      <c r="AO130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP130" t="b">
+      <c r="AN130" t="b">
         <v>1</v>
       </c>
       <c r="AQ130" t="b">
         <v>1</v>
       </c>
+      <c r="AR130" t="b">
+        <v>1</v>
+      </c>
       <c r="AS130" t="b">
         <v>1</v>
       </c>
-      <c r="AT130" t="b">
-        <v>1</v>
-      </c>
       <c r="AU130" t="b">
         <v>1</v>
       </c>
@@ -11368,14 +11675,20 @@
       <c r="BC130" t="b">
         <v>1</v>
       </c>
-      <c r="BP130" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD130" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE130" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR130" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>102</v>
       </c>
@@ -11398,27 +11711,24 @@
       </c>
       <c r="K131"/>
       <c r="L131"/>
-      <c r="AB131" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE131" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO131" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP131" t="b">
+      <c r="M131" t="b">
+        <v>1</v>
+      </c>
+      <c r="N131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG131" t="b">
         <v>1</v>
       </c>
       <c r="AQ131" t="b">
         <v>1</v>
       </c>
+      <c r="AR131" t="b">
+        <v>1</v>
+      </c>
       <c r="AS131" t="b">
         <v>1</v>
       </c>
-      <c r="AT131" t="b">
-        <v>1</v>
-      </c>
       <c r="AU131" t="b">
         <v>1</v>
       </c>
@@ -11446,17 +11756,23 @@
       <c r="BC131" t="b">
         <v>1</v>
       </c>
-      <c r="BK131" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN131" t="b">
+      <c r="BD131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE131" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM131" t="b">
         <v>1</v>
       </c>
       <c r="BP131" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BR131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>98</v>
       </c>
@@ -11486,19 +11802,16 @@
       <c r="L132" t="b">
         <v>1</v>
       </c>
+      <c r="M132" t="b">
+        <v>1</v>
+      </c>
       <c r="N132" t="b">
         <v>1</v>
       </c>
       <c r="P132" t="b">
         <v>1</v>
       </c>
-      <c r="AB132" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC132" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD132" t="b">
+      <c r="R132" t="b">
         <v>1</v>
       </c>
       <c r="AE132" t="b">
@@ -11519,24 +11832,24 @@
       <c r="AJ132" t="b">
         <v>1</v>
       </c>
+      <c r="AK132" t="b">
+        <v>1</v>
+      </c>
       <c r="AL132" t="b">
         <v>1</v>
       </c>
-      <c r="AO132" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP132" t="b">
+      <c r="AN132" t="b">
         <v>1</v>
       </c>
       <c r="AQ132" t="b">
         <v>1</v>
       </c>
+      <c r="AR132" t="b">
+        <v>1</v>
+      </c>
       <c r="AS132" t="b">
         <v>1</v>
       </c>
-      <c r="AT132" t="b">
-        <v>1</v>
-      </c>
       <c r="AU132" t="b">
         <v>1</v>
       </c>
@@ -11564,14 +11877,20 @@
       <c r="BC132" t="b">
         <v>1</v>
       </c>
-      <c r="BP132" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD132" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE132" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR132" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>102</v>
       </c>
@@ -11586,24 +11905,21 @@
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133"/>
-      <c r="AB133" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO133" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP133" t="b">
+      <c r="M133" t="b">
+        <v>1</v>
+      </c>
+      <c r="N133" t="b">
         <v>1</v>
       </c>
       <c r="AQ133" t="b">
         <v>1</v>
       </c>
+      <c r="AR133" t="b">
+        <v>1</v>
+      </c>
       <c r="AS133" t="b">
         <v>1</v>
       </c>
-      <c r="AT133" t="b">
-        <v>1</v>
-      </c>
       <c r="AU133" t="b">
         <v>1</v>
       </c>
@@ -11631,14 +11947,20 @@
       <c r="BC133" t="b">
         <v>1</v>
       </c>
-      <c r="BK133" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN133" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD133" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE133" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM133" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>98</v>
       </c>
@@ -11668,6 +11990,9 @@
       <c r="L134" t="b">
         <v>1</v>
       </c>
+      <c r="M134" t="b">
+        <v>1</v>
+      </c>
       <c r="N134" t="b">
         <v>1</v>
       </c>
@@ -11677,16 +12002,10 @@
       <c r="R134" t="b">
         <v>1</v>
       </c>
-      <c r="W134" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB134" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC134" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD134" t="b">
+      <c r="T134" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y134" t="b">
         <v>1</v>
       </c>
       <c r="AE134" t="b">
@@ -11707,24 +12026,24 @@
       <c r="AJ134" t="b">
         <v>1</v>
       </c>
+      <c r="AK134" t="b">
+        <v>1</v>
+      </c>
       <c r="AL134" t="b">
         <v>1</v>
       </c>
-      <c r="AO134" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP134" t="b">
+      <c r="AN134" t="b">
         <v>1</v>
       </c>
       <c r="AQ134" t="b">
         <v>1</v>
       </c>
+      <c r="AR134" t="b">
+        <v>1</v>
+      </c>
       <c r="AS134" t="b">
         <v>1</v>
       </c>
-      <c r="AT134" t="b">
-        <v>1</v>
-      </c>
       <c r="AU134" t="b">
         <v>1</v>
       </c>
@@ -11752,14 +12071,20 @@
       <c r="BC134" t="b">
         <v>1</v>
       </c>
-      <c r="BP134" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD134" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE134" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR134" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>102</v>
       </c>
@@ -11774,24 +12099,21 @@
       <c r="J135"/>
       <c r="K135"/>
       <c r="L135"/>
-      <c r="AB135" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO135" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP135" t="b">
+      <c r="M135" t="b">
+        <v>1</v>
+      </c>
+      <c r="N135" t="b">
         <v>1</v>
       </c>
       <c r="AQ135" t="b">
         <v>1</v>
       </c>
+      <c r="AR135" t="b">
+        <v>1</v>
+      </c>
       <c r="AS135" t="b">
         <v>1</v>
       </c>
-      <c r="AT135" t="b">
-        <v>1</v>
-      </c>
       <c r="AU135" t="b">
         <v>1</v>
       </c>
@@ -11819,14 +12141,20 @@
       <c r="BC135" t="b">
         <v>1</v>
       </c>
-      <c r="BK135" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN135" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD135" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE135" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM135" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>287</v>
       </c>
@@ -11841,11 +12169,13 @@
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136"/>
-      <c r="AD136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="AF136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>98</v>
       </c>
@@ -11875,6 +12205,9 @@
       <c r="L137" t="b">
         <v>1</v>
       </c>
+      <c r="M137" t="b">
+        <v>1</v>
+      </c>
       <c r="N137" t="b">
         <v>1</v>
       </c>
@@ -11884,13 +12217,10 @@
       <c r="R137" t="b">
         <v>1</v>
       </c>
-      <c r="S137" t="b">
-        <v>1</v>
-      </c>
-      <c r="V137" t="b">
-        <v>1</v>
-      </c>
-      <c r="W137" t="b">
+      <c r="T137" t="b">
+        <v>1</v>
+      </c>
+      <c r="U137" t="b">
         <v>1</v>
       </c>
       <c r="X137" t="b">
@@ -11899,13 +12229,10 @@
       <c r="Y137" t="b">
         <v>1</v>
       </c>
-      <c r="AB137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD137" t="b">
+      <c r="Z137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA137" t="b">
         <v>1</v>
       </c>
       <c r="AE137" t="b">
@@ -11926,24 +12253,24 @@
       <c r="AJ137" t="b">
         <v>1</v>
       </c>
+      <c r="AK137" t="b">
+        <v>1</v>
+      </c>
       <c r="AL137" t="b">
         <v>1</v>
       </c>
-      <c r="AO137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP137" t="b">
+      <c r="AN137" t="b">
         <v>1</v>
       </c>
       <c r="AQ137" t="b">
         <v>1</v>
       </c>
+      <c r="AR137" t="b">
+        <v>1</v>
+      </c>
       <c r="AS137" t="b">
         <v>1</v>
       </c>
-      <c r="AT137" t="b">
-        <v>1</v>
-      </c>
       <c r="AU137" t="b">
         <v>1</v>
       </c>
@@ -11971,17 +12298,23 @@
       <c r="BC137" t="b">
         <v>1</v>
       </c>
-      <c r="BP137" t="b">
+      <c r="BD137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE137" t="b">
         <v>1</v>
       </c>
       <c r="BR137" t="b">
         <v>1</v>
       </c>
-      <c r="BV137" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BT137" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>240</v>
       </c>
@@ -12001,13 +12334,9 @@
       <c r="J138"/>
       <c r="K138"/>
       <c r="L138"/>
-      <c r="BG138" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ138" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK138" t="b">
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="BI138" t="b">
         <v>1</v>
       </c>
       <c r="BL138" t="b">
@@ -12019,8 +12348,14 @@
       <c r="BN138" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BO138" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>321</v>
       </c>
@@ -12035,11 +12370,13 @@
       <c r="J139"/>
       <c r="K139"/>
       <c r="L139"/>
-      <c r="U139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="W139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>334</v>
       </c>
@@ -12054,11 +12391,13 @@
       <c r="J140"/>
       <c r="K140"/>
       <c r="L140"/>
-      <c r="Y140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="AA140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>328</v>
       </c>
@@ -12073,11 +12412,13 @@
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141"/>
-      <c r="AJ141" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="AL141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>287</v>
       </c>
@@ -12092,11 +12433,13 @@
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142"/>
-      <c r="AD142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="AF142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>299</v>
       </c>
@@ -12111,11 +12454,13 @@
       <c r="J143"/>
       <c r="K143"/>
       <c r="L143"/>
-      <c r="BH143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="BJ143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>130</v>
       </c>
@@ -12130,14 +12475,16 @@
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144"/>
-      <c r="AE144" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP144" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="AG144" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>99</v>
       </c>
@@ -12174,6 +12521,9 @@
       <c r="L145" t="b">
         <v>1</v>
       </c>
+      <c r="M145" t="b">
+        <v>1</v>
+      </c>
       <c r="N145" t="b">
         <v>1</v>
       </c>
@@ -12183,9 +12533,6 @@
       <c r="R145" t="b">
         <v>1</v>
       </c>
-      <c r="S145" t="b">
-        <v>1</v>
-      </c>
       <c r="T145" t="b">
         <v>1</v>
       </c>
@@ -12204,13 +12551,10 @@
       <c r="Y145" t="b">
         <v>1</v>
       </c>
-      <c r="AB145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD145" t="b">
+      <c r="Z145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA145" t="b">
         <v>1</v>
       </c>
       <c r="AE145" t="b">
@@ -12231,24 +12575,24 @@
       <c r="AJ145" t="b">
         <v>1</v>
       </c>
+      <c r="AK145" t="b">
+        <v>1</v>
+      </c>
       <c r="AL145" t="b">
         <v>1</v>
       </c>
-      <c r="AO145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP145" t="b">
+      <c r="AN145" t="b">
         <v>1</v>
       </c>
       <c r="AQ145" t="b">
         <v>1</v>
       </c>
+      <c r="AR145" t="b">
+        <v>1</v>
+      </c>
       <c r="AS145" t="b">
         <v>1</v>
       </c>
-      <c r="AT145" t="b">
-        <v>1</v>
-      </c>
       <c r="AU145" t="b">
         <v>1</v>
       </c>
@@ -12333,8 +12677,14 @@
       <c r="BV145" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW145" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>98</v>
       </c>
@@ -12367,6 +12717,9 @@
       <c r="L146" t="b">
         <v>1</v>
       </c>
+      <c r="M146" t="b">
+        <v>1</v>
+      </c>
       <c r="N146" t="b">
         <v>1</v>
       </c>
@@ -12376,22 +12729,16 @@
       <c r="R146" t="b">
         <v>1</v>
       </c>
-      <c r="S146" t="b">
+      <c r="T146" t="b">
         <v>1</v>
       </c>
       <c r="U146" t="b">
         <v>1</v>
       </c>
-      <c r="V146" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB146" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC146" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD146" t="b">
+      <c r="W146" t="b">
+        <v>1</v>
+      </c>
+      <c r="X146" t="b">
         <v>1</v>
       </c>
       <c r="AE146" t="b">
@@ -12412,24 +12759,24 @@
       <c r="AJ146" t="b">
         <v>1</v>
       </c>
+      <c r="AK146" t="b">
+        <v>1</v>
+      </c>
       <c r="AL146" t="b">
         <v>1</v>
       </c>
-      <c r="AO146" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP146" t="b">
+      <c r="AN146" t="b">
         <v>1</v>
       </c>
       <c r="AQ146" t="b">
         <v>1</v>
       </c>
+      <c r="AR146" t="b">
+        <v>1</v>
+      </c>
       <c r="AS146" t="b">
         <v>1</v>
       </c>
-      <c r="AT146" t="b">
-        <v>1</v>
-      </c>
       <c r="AU146" t="b">
         <v>1</v>
       </c>
@@ -12457,17 +12804,23 @@
       <c r="BC146" t="b">
         <v>1</v>
       </c>
-      <c r="BP146" t="b">
+      <c r="BD146" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE146" t="b">
         <v>1</v>
       </c>
       <c r="BR146" t="b">
         <v>1</v>
       </c>
-      <c r="BV146" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BT146" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>99</v>
       </c>
@@ -12504,6 +12857,9 @@
       <c r="L147" t="b">
         <v>1</v>
       </c>
+      <c r="M147" t="b">
+        <v>1</v>
+      </c>
       <c r="N147" t="b">
         <v>1</v>
       </c>
@@ -12513,9 +12869,6 @@
       <c r="R147" t="b">
         <v>1</v>
       </c>
-      <c r="S147" t="b">
-        <v>1</v>
-      </c>
       <c r="T147" t="b">
         <v>1</v>
       </c>
@@ -12534,13 +12887,10 @@
       <c r="Y147" t="b">
         <v>1</v>
       </c>
-      <c r="AB147" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC147" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD147" t="b">
+      <c r="Z147" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA147" t="b">
         <v>1</v>
       </c>
       <c r="AE147" t="b">
@@ -12561,24 +12911,24 @@
       <c r="AJ147" t="b">
         <v>1</v>
       </c>
+      <c r="AK147" t="b">
+        <v>1</v>
+      </c>
       <c r="AL147" t="b">
         <v>1</v>
       </c>
-      <c r="AO147" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP147" t="b">
+      <c r="AN147" t="b">
         <v>1</v>
       </c>
       <c r="AQ147" t="b">
         <v>1</v>
       </c>
+      <c r="AR147" t="b">
+        <v>1</v>
+      </c>
       <c r="AS147" t="b">
         <v>1</v>
       </c>
-      <c r="AT147" t="b">
-        <v>1</v>
-      </c>
       <c r="AU147" t="b">
         <v>1</v>
       </c>
@@ -12663,8 +13013,14 @@
       <c r="BV147" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW147" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>99</v>
       </c>
@@ -12701,6 +13057,9 @@
       <c r="L148" t="b">
         <v>1</v>
       </c>
+      <c r="M148" t="b">
+        <v>1</v>
+      </c>
       <c r="N148" t="b">
         <v>1</v>
       </c>
@@ -12710,9 +13069,6 @@
       <c r="R148" t="b">
         <v>1</v>
       </c>
-      <c r="S148" t="b">
-        <v>1</v>
-      </c>
       <c r="T148" t="b">
         <v>1</v>
       </c>
@@ -12731,13 +13087,10 @@
       <c r="Y148" t="b">
         <v>1</v>
       </c>
-      <c r="AB148" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC148" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD148" t="b">
+      <c r="Z148" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA148" t="b">
         <v>1</v>
       </c>
       <c r="AE148" t="b">
@@ -12758,24 +13111,24 @@
       <c r="AJ148" t="b">
         <v>1</v>
       </c>
+      <c r="AK148" t="b">
+        <v>1</v>
+      </c>
       <c r="AL148" t="b">
         <v>1</v>
       </c>
-      <c r="AO148" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP148" t="b">
+      <c r="AN148" t="b">
         <v>1</v>
       </c>
       <c r="AQ148" t="b">
         <v>1</v>
       </c>
+      <c r="AR148" t="b">
+        <v>1</v>
+      </c>
       <c r="AS148" t="b">
         <v>1</v>
       </c>
-      <c r="AT148" t="b">
-        <v>1</v>
-      </c>
       <c r="AU148" t="b">
         <v>1</v>
       </c>
@@ -12860,8 +13213,14 @@
       <c r="BV148" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW148" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>122</v>
       </c>
@@ -12876,32 +13235,34 @@
       <c r="J149"/>
       <c r="K149"/>
       <c r="L149"/>
-      <c r="T149" t="b">
-        <v>1</v>
-      </c>
-      <c r="U149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG149" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH149" t="b">
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="V149" t="b">
+        <v>1</v>
+      </c>
+      <c r="W149" t="b">
         <v>1</v>
       </c>
       <c r="BI149" t="b">
         <v>1</v>
       </c>
+      <c r="BJ149" t="b">
+        <v>1</v>
+      </c>
       <c r="BK149" t="b">
         <v>1</v>
       </c>
-      <c r="BL149" t="b">
+      <c r="BM149" t="b">
         <v>1</v>
       </c>
       <c r="BN149" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>258</v>
       </c>
@@ -12916,14 +13277,16 @@
       <c r="J150"/>
       <c r="K150"/>
       <c r="L150"/>
-      <c r="AC150" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="AE150" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>258</v>
       </c>
@@ -12938,11 +13301,13 @@
       <c r="J151"/>
       <c r="K151"/>
       <c r="L151"/>
-      <c r="AC151" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="AE151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>99</v>
       </c>
@@ -12979,6 +13344,9 @@
       <c r="L152" t="b">
         <v>1</v>
       </c>
+      <c r="M152" t="b">
+        <v>1</v>
+      </c>
       <c r="N152" t="b">
         <v>1</v>
       </c>
@@ -12988,9 +13356,6 @@
       <c r="R152" t="b">
         <v>1</v>
       </c>
-      <c r="S152" t="b">
-        <v>1</v>
-      </c>
       <c r="T152" t="b">
         <v>1</v>
       </c>
@@ -13009,13 +13374,10 @@
       <c r="Y152" t="b">
         <v>1</v>
       </c>
-      <c r="AB152" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC152" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD152" t="b">
+      <c r="Z152" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA152" t="b">
         <v>1</v>
       </c>
       <c r="AE152" t="b">
@@ -13036,24 +13398,24 @@
       <c r="AJ152" t="b">
         <v>1</v>
       </c>
+      <c r="AK152" t="b">
+        <v>1</v>
+      </c>
       <c r="AL152" t="b">
         <v>1</v>
       </c>
-      <c r="AO152" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP152" t="b">
+      <c r="AN152" t="b">
         <v>1</v>
       </c>
       <c r="AQ152" t="b">
         <v>1</v>
       </c>
+      <c r="AR152" t="b">
+        <v>1</v>
+      </c>
       <c r="AS152" t="b">
         <v>1</v>
       </c>
-      <c r="AT152" t="b">
-        <v>1</v>
-      </c>
       <c r="AU152" t="b">
         <v>1</v>
       </c>
@@ -13138,8 +13500,14 @@
       <c r="BV152" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW152" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>122</v>
       </c>
@@ -13154,32 +13522,34 @@
       <c r="J153"/>
       <c r="K153"/>
       <c r="L153"/>
-      <c r="T153" t="b">
-        <v>1</v>
-      </c>
-      <c r="U153" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG153" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH153" t="b">
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="V153" t="b">
+        <v>1</v>
+      </c>
+      <c r="W153" t="b">
         <v>1</v>
       </c>
       <c r="BI153" t="b">
         <v>1</v>
       </c>
+      <c r="BJ153" t="b">
+        <v>1</v>
+      </c>
       <c r="BK153" t="b">
         <v>1</v>
       </c>
-      <c r="BL153" t="b">
+      <c r="BM153" t="b">
         <v>1</v>
       </c>
       <c r="BN153" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>98</v>
       </c>
@@ -13209,22 +13579,19 @@
       <c r="L154" t="b">
         <v>1</v>
       </c>
+      <c r="M154" t="b">
+        <v>1</v>
+      </c>
       <c r="N154" t="b">
         <v>1</v>
       </c>
       <c r="P154" t="b">
         <v>1</v>
       </c>
-      <c r="W154" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB154" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC154" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD154" t="b">
+      <c r="R154" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y154" t="b">
         <v>1</v>
       </c>
       <c r="AE154" t="b">
@@ -13245,24 +13612,24 @@
       <c r="AJ154" t="b">
         <v>1</v>
       </c>
+      <c r="AK154" t="b">
+        <v>1</v>
+      </c>
       <c r="AL154" t="b">
         <v>1</v>
       </c>
-      <c r="AO154" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP154" t="b">
+      <c r="AN154" t="b">
         <v>1</v>
       </c>
       <c r="AQ154" t="b">
         <v>1</v>
       </c>
+      <c r="AR154" t="b">
+        <v>1</v>
+      </c>
       <c r="AS154" t="b">
         <v>1</v>
       </c>
-      <c r="AT154" t="b">
-        <v>1</v>
-      </c>
       <c r="AU154" t="b">
         <v>1</v>
       </c>
@@ -13290,14 +13657,20 @@
       <c r="BC154" t="b">
         <v>1</v>
       </c>
-      <c r="BP154" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV154" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD154" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE154" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR154" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>334</v>
       </c>
@@ -13312,11 +13685,13 @@
       <c r="J155"/>
       <c r="K155"/>
       <c r="L155"/>
-      <c r="Y155" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="AA155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>355</v>
       </c>
@@ -13340,8 +13715,10 @@
         <v>1</v>
       </c>
       <c r="L156"/>
-    </row>
-    <row r="157" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M156"/>
+      <c r="N156"/>
+    </row>
+    <row r="157" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>98</v>
       </c>
@@ -13371,22 +13748,19 @@
       <c r="L157" t="b">
         <v>1</v>
       </c>
+      <c r="M157" t="b">
+        <v>1</v>
+      </c>
       <c r="N157" t="b">
         <v>1</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
       </c>
-      <c r="W157" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB157" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC157" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD157" t="b">
+      <c r="R157" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y157" t="b">
         <v>1</v>
       </c>
       <c r="AE157" t="b">
@@ -13407,24 +13781,24 @@
       <c r="AJ157" t="b">
         <v>1</v>
       </c>
+      <c r="AK157" t="b">
+        <v>1</v>
+      </c>
       <c r="AL157" t="b">
         <v>1</v>
       </c>
-      <c r="AO157" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP157" t="b">
+      <c r="AN157" t="b">
         <v>1</v>
       </c>
       <c r="AQ157" t="b">
         <v>1</v>
       </c>
+      <c r="AR157" t="b">
+        <v>1</v>
+      </c>
       <c r="AS157" t="b">
         <v>1</v>
       </c>
-      <c r="AT157" t="b">
-        <v>1</v>
-      </c>
       <c r="AU157" t="b">
         <v>1</v>
       </c>
@@ -13452,14 +13826,20 @@
       <c r="BC157" t="b">
         <v>1</v>
       </c>
-      <c r="BP157" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV157" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD157" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE157" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR157" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>247</v>
       </c>
@@ -13479,35 +13859,37 @@
       <c r="J158"/>
       <c r="K158"/>
       <c r="L158"/>
-      <c r="T158" t="b">
-        <v>1</v>
-      </c>
-      <c r="U158" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG158" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH158" t="b">
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="V158" t="b">
+        <v>1</v>
+      </c>
+      <c r="W158" t="b">
         <v>1</v>
       </c>
       <c r="BI158" t="b">
         <v>1</v>
       </c>
+      <c r="BJ158" t="b">
+        <v>1</v>
+      </c>
       <c r="BK158" t="b">
         <v>1</v>
       </c>
-      <c r="BL158" t="b">
+      <c r="BM158" t="b">
         <v>1</v>
       </c>
       <c r="BN158" t="b">
         <v>1</v>
       </c>
-      <c r="BT158" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP158" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>99</v>
       </c>
@@ -13544,6 +13926,9 @@
       <c r="L159" t="b">
         <v>1</v>
       </c>
+      <c r="M159" t="b">
+        <v>1</v>
+      </c>
       <c r="N159" t="b">
         <v>1</v>
       </c>
@@ -13553,9 +13938,6 @@
       <c r="R159" t="b">
         <v>1</v>
       </c>
-      <c r="S159" t="b">
-        <v>1</v>
-      </c>
       <c r="T159" t="b">
         <v>1</v>
       </c>
@@ -13574,13 +13956,10 @@
       <c r="Y159" t="b">
         <v>1</v>
       </c>
-      <c r="AB159" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC159" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD159" t="b">
+      <c r="Z159" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA159" t="b">
         <v>1</v>
       </c>
       <c r="AE159" t="b">
@@ -13601,24 +13980,24 @@
       <c r="AJ159" t="b">
         <v>1</v>
       </c>
+      <c r="AK159" t="b">
+        <v>1</v>
+      </c>
       <c r="AL159" t="b">
         <v>1</v>
       </c>
-      <c r="AO159" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP159" t="b">
+      <c r="AN159" t="b">
         <v>1</v>
       </c>
       <c r="AQ159" t="b">
         <v>1</v>
       </c>
+      <c r="AR159" t="b">
+        <v>1</v>
+      </c>
       <c r="AS159" t="b">
         <v>1</v>
       </c>
-      <c r="AT159" t="b">
-        <v>1</v>
-      </c>
       <c r="AU159" t="b">
         <v>1</v>
       </c>
@@ -13703,8 +14082,14 @@
       <c r="BV159" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW159" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>115</v>
       </c>
@@ -13719,14 +14104,16 @@
       <c r="J160"/>
       <c r="K160"/>
       <c r="L160"/>
-      <c r="BD160" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="BF160" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>115</v>
       </c>
@@ -13741,14 +14128,16 @@
       <c r="J161"/>
       <c r="K161"/>
       <c r="L161"/>
-      <c r="BD161" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="BF161" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>98</v>
       </c>
@@ -13778,25 +14167,22 @@
       <c r="L162" t="b">
         <v>1</v>
       </c>
+      <c r="M162" t="b">
+        <v>1</v>
+      </c>
       <c r="N162" t="b">
         <v>1</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
       </c>
-      <c r="W162" t="b">
-        <v>1</v>
-      </c>
-      <c r="X162" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB162" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC162" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD162" t="b">
+      <c r="R162" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y162" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z162" t="b">
         <v>1</v>
       </c>
       <c r="AE162" t="b">
@@ -13817,24 +14203,24 @@
       <c r="AJ162" t="b">
         <v>1</v>
       </c>
+      <c r="AK162" t="b">
+        <v>1</v>
+      </c>
       <c r="AL162" t="b">
         <v>1</v>
       </c>
-      <c r="AO162" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP162" t="b">
+      <c r="AN162" t="b">
         <v>1</v>
       </c>
       <c r="AQ162" t="b">
         <v>1</v>
       </c>
+      <c r="AR162" t="b">
+        <v>1</v>
+      </c>
       <c r="AS162" t="b">
         <v>1</v>
       </c>
-      <c r="AT162" t="b">
-        <v>1</v>
-      </c>
       <c r="AU162" t="b">
         <v>1</v>
       </c>
@@ -13862,14 +14248,20 @@
       <c r="BC162" t="b">
         <v>1</v>
       </c>
-      <c r="BP162" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD162" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE162" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR162" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>99</v>
       </c>
@@ -13906,6 +14298,9 @@
       <c r="L163" t="b">
         <v>1</v>
       </c>
+      <c r="M163" t="b">
+        <v>1</v>
+      </c>
       <c r="N163" t="b">
         <v>1</v>
       </c>
@@ -13915,9 +14310,6 @@
       <c r="R163" t="b">
         <v>1</v>
       </c>
-      <c r="S163" t="b">
-        <v>1</v>
-      </c>
       <c r="T163" t="b">
         <v>1</v>
       </c>
@@ -13936,13 +14328,10 @@
       <c r="Y163" t="b">
         <v>1</v>
       </c>
-      <c r="AB163" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC163" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD163" t="b">
+      <c r="Z163" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA163" t="b">
         <v>1</v>
       </c>
       <c r="AE163" t="b">
@@ -13963,24 +14352,24 @@
       <c r="AJ163" t="b">
         <v>1</v>
       </c>
+      <c r="AK163" t="b">
+        <v>1</v>
+      </c>
       <c r="AL163" t="b">
         <v>1</v>
       </c>
-      <c r="AO163" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP163" t="b">
+      <c r="AN163" t="b">
         <v>1</v>
       </c>
       <c r="AQ163" t="b">
         <v>1</v>
       </c>
+      <c r="AR163" t="b">
+        <v>1</v>
+      </c>
       <c r="AS163" t="b">
         <v>1</v>
       </c>
-      <c r="AT163" t="b">
-        <v>1</v>
-      </c>
       <c r="AU163" t="b">
         <v>1</v>
       </c>
@@ -14065,8 +14454,14 @@
       <c r="BV163" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW163" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>268</v>
       </c>
@@ -14081,11 +14476,13 @@
       <c r="J164"/>
       <c r="K164"/>
       <c r="L164"/>
-      <c r="AW164" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="AY164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>122</v>
       </c>
@@ -14100,29 +14497,31 @@
       <c r="J165"/>
       <c r="K165"/>
       <c r="L165"/>
-      <c r="T165" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG165" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH165" t="b">
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="V165" t="b">
         <v>1</v>
       </c>
       <c r="BI165" t="b">
         <v>1</v>
       </c>
+      <c r="BJ165" t="b">
+        <v>1</v>
+      </c>
       <c r="BK165" t="b">
         <v>1</v>
       </c>
-      <c r="BL165" t="b">
+      <c r="BM165" t="b">
         <v>1</v>
       </c>
       <c r="BN165" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BP165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>99</v>
       </c>
@@ -14159,6 +14558,9 @@
       <c r="L166" t="b">
         <v>1</v>
       </c>
+      <c r="M166" t="b">
+        <v>1</v>
+      </c>
       <c r="N166" t="b">
         <v>1</v>
       </c>
@@ -14168,9 +14570,6 @@
       <c r="R166" t="b">
         <v>1</v>
       </c>
-      <c r="S166" t="b">
-        <v>1</v>
-      </c>
       <c r="T166" t="b">
         <v>1</v>
       </c>
@@ -14189,13 +14588,10 @@
       <c r="Y166" t="b">
         <v>1</v>
       </c>
-      <c r="AB166" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC166" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD166" t="b">
+      <c r="Z166" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA166" t="b">
         <v>1</v>
       </c>
       <c r="AE166" t="b">
@@ -14216,24 +14612,24 @@
       <c r="AJ166" t="b">
         <v>1</v>
       </c>
+      <c r="AK166" t="b">
+        <v>1</v>
+      </c>
       <c r="AL166" t="b">
         <v>1</v>
       </c>
-      <c r="AO166" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP166" t="b">
+      <c r="AN166" t="b">
         <v>1</v>
       </c>
       <c r="AQ166" t="b">
         <v>1</v>
       </c>
+      <c r="AR166" t="b">
+        <v>1</v>
+      </c>
       <c r="AS166" t="b">
         <v>1</v>
       </c>
-      <c r="AT166" t="b">
-        <v>1</v>
-      </c>
       <c r="AU166" t="b">
         <v>1</v>
       </c>
@@ -14318,8 +14714,14 @@
       <c r="BV166" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW166" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>294</v>
       </c>
@@ -14334,11 +14736,13 @@
       <c r="J167"/>
       <c r="K167"/>
       <c r="L167"/>
-      <c r="BP167" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="BR167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>99</v>
       </c>
@@ -14375,6 +14779,9 @@
       <c r="L168" t="b">
         <v>1</v>
       </c>
+      <c r="M168" t="b">
+        <v>1</v>
+      </c>
       <c r="N168" t="b">
         <v>1</v>
       </c>
@@ -14384,9 +14791,6 @@
       <c r="R168" t="b">
         <v>1</v>
       </c>
-      <c r="S168" t="b">
-        <v>1</v>
-      </c>
       <c r="T168" t="b">
         <v>1</v>
       </c>
@@ -14405,13 +14809,10 @@
       <c r="Y168" t="b">
         <v>1</v>
       </c>
-      <c r="AB168" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC168" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD168" t="b">
+      <c r="Z168" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA168" t="b">
         <v>1</v>
       </c>
       <c r="AE168" t="b">
@@ -14432,24 +14833,24 @@
       <c r="AJ168" t="b">
         <v>1</v>
       </c>
+      <c r="AK168" t="b">
+        <v>1</v>
+      </c>
       <c r="AL168" t="b">
         <v>1</v>
       </c>
-      <c r="AO168" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP168" t="b">
+      <c r="AN168" t="b">
         <v>1</v>
       </c>
       <c r="AQ168" t="b">
         <v>1</v>
       </c>
+      <c r="AR168" t="b">
+        <v>1</v>
+      </c>
       <c r="AS168" t="b">
         <v>1</v>
       </c>
-      <c r="AT168" t="b">
-        <v>1</v>
-      </c>
       <c r="AU168" t="b">
         <v>1</v>
       </c>
@@ -14534,8 +14935,14 @@
       <c r="BV168" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW168" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>99</v>
       </c>
@@ -14572,6 +14979,9 @@
       <c r="L169" t="b">
         <v>1</v>
       </c>
+      <c r="M169" t="b">
+        <v>1</v>
+      </c>
       <c r="N169" t="b">
         <v>1</v>
       </c>
@@ -14581,9 +14991,6 @@
       <c r="R169" t="b">
         <v>1</v>
       </c>
-      <c r="S169" t="b">
-        <v>1</v>
-      </c>
       <c r="T169" t="b">
         <v>1</v>
       </c>
@@ -14602,13 +15009,10 @@
       <c r="Y169" t="b">
         <v>1</v>
       </c>
-      <c r="AB169" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC169" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD169" t="b">
+      <c r="Z169" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA169" t="b">
         <v>1</v>
       </c>
       <c r="AE169" t="b">
@@ -14629,24 +15033,24 @@
       <c r="AJ169" t="b">
         <v>1</v>
       </c>
+      <c r="AK169" t="b">
+        <v>1</v>
+      </c>
       <c r="AL169" t="b">
         <v>1</v>
       </c>
-      <c r="AO169" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP169" t="b">
+      <c r="AN169" t="b">
         <v>1</v>
       </c>
       <c r="AQ169" t="b">
         <v>1</v>
       </c>
+      <c r="AR169" t="b">
+        <v>1</v>
+      </c>
       <c r="AS169" t="b">
         <v>1</v>
       </c>
-      <c r="AT169" t="b">
-        <v>1</v>
-      </c>
       <c r="AU169" t="b">
         <v>1</v>
       </c>
@@ -14731,8 +15135,14 @@
       <c r="BV169" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW169" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>356</v>
       </c>
@@ -14757,8 +15167,10 @@
       <c r="J170"/>
       <c r="K170"/>
       <c r="L170"/>
-    </row>
-    <row r="171" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M170"/>
+      <c r="N170"/>
+    </row>
+    <row r="171" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>229</v>
       </c>
@@ -14773,11 +15185,13 @@
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171"/>
-      <c r="BC171" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="BE171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>313</v>
       </c>
@@ -14792,11 +15206,13 @@
       <c r="J172"/>
       <c r="K172"/>
       <c r="L172"/>
-      <c r="BR172" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="BT172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>232</v>
       </c>
@@ -14811,14 +15227,16 @@
       <c r="J173"/>
       <c r="K173"/>
       <c r="L173"/>
-      <c r="AJ173" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU173" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="AL173" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>99</v>
       </c>
@@ -14851,6 +15269,9 @@
       <c r="L174" t="b">
         <v>1</v>
       </c>
+      <c r="M174" t="b">
+        <v>1</v>
+      </c>
       <c r="N174" t="b">
         <v>1</v>
       </c>
@@ -14860,9 +15281,6 @@
       <c r="R174" t="b">
         <v>1</v>
       </c>
-      <c r="S174" t="b">
-        <v>1</v>
-      </c>
       <c r="T174" t="b">
         <v>1</v>
       </c>
@@ -14881,13 +15299,10 @@
       <c r="Y174" t="b">
         <v>1</v>
       </c>
-      <c r="AB174" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC174" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD174" t="b">
+      <c r="Z174" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA174" t="b">
         <v>1</v>
       </c>
       <c r="AE174" t="b">
@@ -14908,24 +15323,24 @@
       <c r="AJ174" t="b">
         <v>1</v>
       </c>
+      <c r="AK174" t="b">
+        <v>1</v>
+      </c>
       <c r="AL174" t="b">
         <v>1</v>
       </c>
-      <c r="AO174" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP174" t="b">
+      <c r="AN174" t="b">
         <v>1</v>
       </c>
       <c r="AQ174" t="b">
         <v>1</v>
       </c>
+      <c r="AR174" t="b">
+        <v>1</v>
+      </c>
       <c r="AS174" t="b">
         <v>1</v>
       </c>
-      <c r="AT174" t="b">
-        <v>1</v>
-      </c>
       <c r="AU174" t="b">
         <v>1</v>
       </c>
@@ -15010,8 +15425,14 @@
       <c r="BV174" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW174" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>115</v>
       </c>
@@ -15022,14 +15443,16 @@
       <c r="J175"/>
       <c r="K175"/>
       <c r="L175"/>
-      <c r="BD175" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE175" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="BF175" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>115</v>
       </c>
@@ -15040,14 +15463,16 @@
       <c r="J176"/>
       <c r="K176"/>
       <c r="L176"/>
-      <c r="BD176" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE176" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="BF176" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>115</v>
       </c>
@@ -15058,14 +15483,16 @@
       <c r="J177"/>
       <c r="K177"/>
       <c r="L177"/>
-      <c r="BD177" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE177" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="BF177" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>115</v>
       </c>
@@ -15076,14 +15503,16 @@
       <c r="J178"/>
       <c r="K178"/>
       <c r="L178"/>
-      <c r="BD178" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE178" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="BF178" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>124</v>
       </c>
@@ -15094,13 +15523,9 @@
       <c r="J179"/>
       <c r="K179"/>
       <c r="L179"/>
-      <c r="BG179" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ179" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK179" t="b">
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="BI179" t="b">
         <v>1</v>
       </c>
       <c r="BL179" t="b">
@@ -15112,8 +15537,14 @@
       <c r="BN179" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BO179" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>282</v>
       </c>
@@ -15124,11 +15555,13 @@
       <c r="J180"/>
       <c r="K180"/>
       <c r="L180"/>
-      <c r="R180" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="T180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>355</v>
       </c>
@@ -15150,8 +15583,10 @@
         <v>1</v>
       </c>
       <c r="L181"/>
-    </row>
-    <row r="182" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M181"/>
+      <c r="N181"/>
+    </row>
+    <row r="182" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>355</v>
       </c>
@@ -15173,8 +15608,10 @@
         <v>1</v>
       </c>
       <c r="L182"/>
-    </row>
-    <row r="183" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M182"/>
+      <c r="N182"/>
+    </row>
+    <row r="183" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>232</v>
       </c>
@@ -15185,11 +15622,13 @@
       <c r="J183"/>
       <c r="K183"/>
       <c r="L183"/>
-      <c r="AU183" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="AW183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>232</v>
       </c>
@@ -15200,11 +15639,13 @@
       <c r="J184"/>
       <c r="K184"/>
       <c r="L184"/>
-      <c r="AU184" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="AW184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>355</v>
       </c>
@@ -15229,8 +15670,10 @@
         <v>1</v>
       </c>
       <c r="L185"/>
-    </row>
-    <row r="186" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M185"/>
+      <c r="N185"/>
+    </row>
+    <row r="186" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>258</v>
       </c>
@@ -15241,11 +15684,13 @@
       <c r="J186"/>
       <c r="K186"/>
       <c r="L186"/>
-      <c r="AC186" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="AE186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>258</v>
       </c>
@@ -15256,11 +15701,13 @@
       <c r="J187"/>
       <c r="K187"/>
       <c r="L187"/>
-      <c r="AC187" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M187"/>
+      <c r="N187"/>
+      <c r="AE187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>258</v>
       </c>
@@ -15271,14 +15718,16 @@
       <c r="J188"/>
       <c r="K188"/>
       <c r="L188"/>
-      <c r="AC188" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR188" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="M188"/>
+      <c r="N188"/>
+      <c r="AE188" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>98</v>
       </c>
@@ -15309,22 +15758,19 @@
       <c r="L189" t="b">
         <v>1</v>
       </c>
+      <c r="M189" t="b">
+        <v>1</v>
+      </c>
       <c r="N189" t="b">
         <v>1</v>
       </c>
       <c r="P189" t="b">
         <v>1</v>
       </c>
-      <c r="W189" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB189" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC189" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD189" t="b">
+      <c r="R189" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y189" t="b">
         <v>1</v>
       </c>
       <c r="AE189" t="b">
@@ -15345,24 +15791,24 @@
       <c r="AJ189" t="b">
         <v>1</v>
       </c>
+      <c r="AK189" t="b">
+        <v>1</v>
+      </c>
       <c r="AL189" t="b">
         <v>1</v>
       </c>
-      <c r="AO189" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP189" t="b">
+      <c r="AN189" t="b">
         <v>1</v>
       </c>
       <c r="AQ189" t="b">
         <v>1</v>
       </c>
+      <c r="AR189" t="b">
+        <v>1</v>
+      </c>
       <c r="AS189" t="b">
         <v>1</v>
       </c>
-      <c r="AT189" t="b">
-        <v>1</v>
-      </c>
       <c r="AU189" t="b">
         <v>1</v>
       </c>
@@ -15390,14 +15836,20 @@
       <c r="BC189" t="b">
         <v>1</v>
       </c>
-      <c r="BP189" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV189" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BD189" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE189" t="b">
+        <v>1</v>
+      </c>
+      <c r="BR189" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>98</v>
       </c>
@@ -15428,25 +15880,22 @@
       <c r="L190" t="b">
         <v>1</v>
       </c>
+      <c r="M190" t="b">
+        <v>1</v>
+      </c>
       <c r="N190" t="b">
         <v>1</v>
       </c>
       <c r="P190" t="b">
         <v>1</v>
       </c>
-      <c r="S190" t="b">
-        <v>1</v>
-      </c>
-      <c r="W190" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB190" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC190" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD190" t="b">
+      <c r="R190" t="b">
+        <v>1</v>
+      </c>
+      <c r="U190" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y190" t="b">
         <v>1</v>
       </c>
       <c r="AE190" t="b">
@@ -15467,24 +15916,24 @@
       <c r="AJ190" t="b">
         <v>1</v>
       </c>
+      <c r="AK190" t="b">
+        <v>1</v>
+      </c>
       <c r="AL190" t="b">
         <v>1</v>
       </c>
-      <c r="AO190" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP190" t="b">
+      <c r="AN190" t="b">
         <v>1</v>
       </c>
       <c r="AQ190" t="b">
         <v>1</v>
       </c>
+      <c r="AR190" t="b">
+        <v>1</v>
+      </c>
       <c r="AS190" t="b">
         <v>1</v>
       </c>
-      <c r="AT190" t="b">
-        <v>1</v>
-      </c>
       <c r="AU190" t="b">
         <v>1</v>
       </c>
@@ -15512,19 +15961,25 @@
       <c r="BC190" t="b">
         <v>1</v>
       </c>
-      <c r="BP190" t="b">
+      <c r="BD190" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE190" t="b">
         <v>1</v>
       </c>
       <c r="BR190" t="b">
         <v>1</v>
       </c>
-      <c r="BV190" t="b">
+      <c r="BT190" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX190" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D190" xr:uid="{4F166773-FDDC-4397-9B6E-034F3E0205F4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BV190">
+  <autoFilter ref="A2:L190" xr:uid="{4F166773-FDDC-4397-9B6E-034F3E0205F4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BX190">
     <sortCondition ref="B3:B190"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
